--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_385.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_385.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d82353-Reviews-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-Los-Angeles-Gateway-Torrance.h25795.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_385.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_385.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1571 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r584473966-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>33182</t>
+  </si>
+  <si>
+    <t>82353</t>
+  </si>
+  <si>
+    <t>584473966</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Its Time For Renovation</t>
+  </si>
+  <si>
+    <t>This was my family’s first time staying here at this Holiday Inn. I grew up in Torrance and my parents literally live minutes away from this property.The property itself is located in a more industrial part of Torrance so places to see and eat at are scarce in the area.  But the property is located right off the 110 freeway so getting to nearby sights and restaurants isnt that much of a problem. The area seems safe enough during the day but at night, it can be a bit sketchy. The parking lot seems to be in bad need of renovation as some of the concrete was not level and parking was a bit scarce .The property also charges 16.00 a day for parking with in and out privileges for IHG members. The room itself was well appointed. 2 beds, a desk that doubled as a dining table, fridge...The fridge was a hit and miss as sometimes it got too cold or not cold enough...but the biggest downer for the room were those popcorn ceilings. Really showed how dated the room was and definitely shows how much of an overhaul this hotel needs.For the price point, this hotel isn’t too bad . Would consider staying again if hotel updates their rooms and facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This was my family’s first time staying here at this Holiday Inn. I grew up in Torrance and my parents literally live minutes away from this property.The property itself is located in a more industrial part of Torrance so places to see and eat at are scarce in the area.  But the property is located right off the 110 freeway so getting to nearby sights and restaurants isnt that much of a problem. The area seems safe enough during the day but at night, it can be a bit sketchy. The parking lot seems to be in bad need of renovation as some of the concrete was not level and parking was a bit scarce .The property also charges 16.00 a day for parking with in and out privileges for IHG members. The room itself was well appointed. 2 beds, a desk that doubled as a dining table, fridge...The fridge was a hit and miss as sometimes it got too cold or not cold enough...but the biggest downer for the room were those popcorn ceilings. Really showed how dated the room was and definitely shows how much of an overhaul this hotel needs.For the price point, this hotel isn’t too bad . Would consider staying again if hotel updates their rooms and facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r581796050-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>581796050</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>THE WORST PLACE EVER!!!!!🤮😷</t>
+  </si>
+  <si>
+    <t>I came in on a Saturday check in was told breakfast was extra, no problem so I paid for 2 breakfast buffets that was from 7 to 11.  So we walked in at 10 and was told the buffet was closed and had to order of a menu that had very small limit of options. It was not worth the money (nasty breakfast). $11 a day for handicap and hotel club members. Being disabled it was very hard to roll my luggage into the hotel from the parking lot, because of the uneven pavement in the potholes everywhere. Oh boy the room smelled like it use to be an only smokers room. It looked and smelled like it was old attic that’s been close for 20 years. Took a shower and the tub filled up and wouldn’t drain, I pulled off the cover and pulled out a ball of hair bigger then a golf ball (gross). They need to get it together. They need to do a total remodel on the whole hotel and hire employees that isn’t so ignorant and rude. We feel It was so bad that corporate should be getting a phone call from us. (WARNING DON’T STAY HERE!!!!)MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I came in on a Saturday check in was told breakfast was extra, no problem so I paid for 2 breakfast buffets that was from 7 to 11.  So we walked in at 10 and was told the buffet was closed and had to order of a menu that had very small limit of options. It was not worth the money (nasty breakfast). $11 a day for handicap and hotel club members. Being disabled it was very hard to roll my luggage into the hotel from the parking lot, because of the uneven pavement in the potholes everywhere. Oh boy the room smelled like it use to be an only smokers room. It looked and smelled like it was old attic that’s been close for 20 years. Took a shower and the tub filled up and wouldn’t drain, I pulled off the cover and pulled out a ball of hair bigger then a golf ball (gross). They need to get it together. They need to do a total remodel on the whole hotel and hire employees that isn’t so ignorant and rude. We feel It was so bad that corporate should be getting a phone call from us. (WARNING DON’T STAY HERE!!!!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r580456086-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>580456086</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Birthday trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for the weekend while on a birthday beach trip with my family, I got a crib for my 7 month old and he slept good in it. Would stay here again, only thing Was that they charged for parking per night we ended up paying 22$ just for that two days, and breakfast there was way overpriced, ended up going somewhere else to eat. Walmart is a few minutes away which was very convenient.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r459502538-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>459502538</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Good visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service from front desk, room air temp. Difficult to control- nice spacious and clean Had issue with Other guest smoking in stair well in non smoking hotelwould like vanilla creamer for coffee in rooms. Towels could be bigger and thicker for the price Overall wifi easy, room quiet able to work </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r415971300-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>415971300</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Inconsiderate policy</t>
+  </si>
+  <si>
+    <t>I am a jet setter and literally live in my suitcase as i stay in hotel most of the time. What in the world give your hotel the right tell me when i can get my package only from 830 to 930 in the morning and 3 to 4 in the afternoon. Dont you understand jetlag?? I am a guest in your hotel you should be the one adjusting to my needs not the other way around. I am also an IHG member and never did i experience this with other IHG hotel member. Be ashamed of your customer service nothing worth going back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Torrance, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>I am a jet setter and literally live in my suitcase as i stay in hotel most of the time. What in the world give your hotel the right tell me when i can get my package only from 830 to 930 in the morning and 3 to 4 in the afternoon. Dont you understand jetlag?? I am a guest in your hotel you should be the one adjusting to my needs not the other way around. I am also an IHG member and never did i experience this with other IHG hotel member. Be ashamed of your customer service nothing worth going back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r406760741-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>406760741</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>NICE AND COZY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparently it was a very busy weekend when we arrived.  There was a quinceanera going on in the 2nd floor and a tourist group had just arrived, but despite all of the action, we were attended quickly.  The service was excellent!  There was 5 of us so we had a suite.  The room was very cozy.  It was 2 full sized beds and a television in one room and the next room had a sofa bed with a television and desk.  The room was very clean and quiet.  We had a good rest.  We stayed for 2 days.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r392238126-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>392238126</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>A Nice Lobby</t>
+  </si>
+  <si>
+    <t>Walking into the lobby for checking in, I can watch and hear a gentle and soothing waterfall sound from a small rock mountain into a crystal clear Koi pond surrounded by fresh and beautiful flowers. See the uploaded photo for details.The hotel occupancy is often at a nearly 100% level due to corporate contracts, although it has been in a remodeling stage at this time. Front desk staff are friendly and like to help.It also provides a complementary shuttle service from the hotel to Harbor Gateway Transit  Center where you can take a 950X or 910 Express Bus to downtown Los Angeles via Express Busway. In the rush hour, you can board a bus at a 5-minute interval on average.MoreShow less</t>
+  </si>
+  <si>
+    <t>Walking into the lobby for checking in, I can watch and hear a gentle and soothing waterfall sound from a small rock mountain into a crystal clear Koi pond surrounded by fresh and beautiful flowers. See the uploaded photo for details.The hotel occupancy is often at a nearly 100% level due to corporate contracts, although it has been in a remodeling stage at this time. Front desk staff are friendly and like to help.It also provides a complementary shuttle service from the hotel to Harbor Gateway Transit  Center where you can take a 950X or 910 Express Bus to downtown Los Angeles via Express Busway. In the rush hour, you can board a bus at a 5-minute interval on average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r390872032-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>390872032</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>A great choice for the South Bay</t>
+  </si>
+  <si>
+    <t>I've stayed here for a few days two summers in a row as I have family nearby.  Generally I don't have the highest opinion of Holiday Inns, but this one is outstanding.  Extremely clean, quiet, very comfortable, a good location if you have transportation.  Very comfy beds. Excellent staff (a special shout out to Susan, the manager who was so nice about getting us the exact room we wanted). Many flight attendants and pilots for various Asian airlines stay here, which is kind of fun, so you can actually get a real Japanese or Hawaiian breakfast, if you want. I love the koi pond and the general ambience. Will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here for a few days two summers in a row as I have family nearby.  Generally I don't have the highest opinion of Holiday Inns, but this one is outstanding.  Extremely clean, quiet, very comfortable, a good location if you have transportation.  Very comfy beds. Excellent staff (a special shout out to Susan, the manager who was so nice about getting us the exact room we wanted). Many flight attendants and pilots for various Asian airlines stay here, which is kind of fun, so you can actually get a real Japanese or Hawaiian breakfast, if you want. I love the koi pond and the general ambience. Will definitely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r390578092-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>390578092</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>This service in this place is Amazing</t>
+  </si>
+  <si>
+    <t>Quiet hotel with really comfortable beds. Nice heated pool with jacuzzi. Free parking and good food from the restaurant. The service was amazing and Syed from the restaurant and Erica from the front desk was awesome.Thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r373683251-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>373683251</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>This is an awesome Hotel the staff is really friendly the pool is nice the recreation room is awesome they cleaned and sanitized the hot tub every morning this is an awesome stay the rooms are very clean I give this place five stars and I would recommend it to anybodyMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>This is an awesome Hotel the staff is really friendly the pool is nice the recreation room is awesome they cleaned and sanitized the hot tub every morning this is an awesome stay the rooms are very clean I give this place five stars and I would recommend it to anybodyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r373068162-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>373068162</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Bad service</t>
+  </si>
+  <si>
+    <t>Staff at front desk should undergo "training" re customer service esp John and Jose. Very discriminating attitude.  Room smelled a very strong odor of  cleaning agent. I guess they are not environment friendly. Would never stay in this hotel again or suggest to co workers, friends and relatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Staff at front desk should undergo "training" re customer service esp John and Jose. Very discriminating attitude.  Room smelled a very strong odor of  cleaning agent. I guess they are not environment friendly. Would never stay in this hotel again or suggest to co workers, friends and relatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r367496083-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>367496083</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel with great customer service. Hotel was clean, great service in the bar &amp; grill. Check in process was quick and efficient. Our room was a nice clean suite with 2-double beds per our request. One downfall was one of the beds in room 801 closes to the window needs to be upgraded as it was really uncomfortable, however, there was a sofa sleeper that was able to accommodate.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r337415038-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>337415038</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Worn but good service</t>
+  </si>
+  <si>
+    <t>Spent 2 nights  including New Years Eve. Room was decent size and clean (especially for pet friendly room), but furniture was worn (nicks and scratches). Tub handle did not work but maintenance was there quickly to repair.Desk staff pleasant and friendly. The wifi password changed each day (because of change from 2015 to 2016?) and expired last day before checkout time. Not much in immediate vicinity in respect to dining and entertainment since surrounding buildings mostly office complexes. Booked thru Hotels.com and rate was reasonable, especially for NYE. Close to 110 and 91 freeways. Would stay again but hope rooms are remodeled soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Spent 2 nights  including New Years Eve. Room was decent size and clean (especially for pet friendly room), but furniture was worn (nicks and scratches). Tub handle did not work but maintenance was there quickly to repair.Desk staff pleasant and friendly. The wifi password changed each day (because of change from 2015 to 2016?) and expired last day before checkout time. Not much in immediate vicinity in respect to dining and entertainment since surrounding buildings mostly office complexes. Booked thru Hotels.com and rate was reasonable, especially for NYE. Close to 110 and 91 freeways. Would stay again but hope rooms are remodeled soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r336833122-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>336833122</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Too much traffic, looking to rest.</t>
+  </si>
+  <si>
+    <t>Too much traffic, looking to rest found this Holiday Inn, had rooms available luckily and stayed for the night. Checked in overnight, received a late check out until 2pm. Loved the bed and we had a great night sleep. Thanks Holiday Inn!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Too much traffic, looking to rest found this Holiday Inn, had rooms available luckily and stayed for the night. Checked in overnight, received a late check out until 2pm. Loved the bed and we had a great night sleep. Thanks Holiday Inn!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r335865356-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>335865356</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Very nice property. This was our second visit to this hotel because they accept small well-behaved pets.  It was nice to find the hotel has been recently remodeled.  It was very clean and attractive and the staff is very friendly and helpful. Because we stayed during the Christmas holiday, occupancy seemed pretty low and our stay was very quiet and peaceful.  Our only complaint would be the $10 daily parking fee, as we were not advised about that fee prior to booking our stay and most of the time the parking lot had relatively few vehicles. But otherwise it was a great choice.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r312404131-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>312404131</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Very nice stay.  Front desk was very knowledgeable of the area.  There is very little to do in the area.  On the other hand it made for a quite stay.  Would stay again if in the area.  The American Youth Soccer Organization (AYSO)  national headquarters is right next door.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r303742917-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>303742917</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Great customer service, rooms and FOOD!</t>
+  </si>
+  <si>
+    <t>Checking into the hotel I was treated very well be the front desk representative "Maine".The rooms are good size, which are clean and I had an amazing view of Los Angeles on the 11th floor. The food at their restaurant was amazing I had the house salad and fish tacos, for $15.00. The average cost of the dinners were between $15 to $20 a plate, the waitress did a good job no complaints on her. The best thing was the quality of the food was exceptionally delicious for the average to slightly high price of the meal, but it filled me up and did the job. Thank you the stay was well worth it and I will come back again. Enjoy the review from JJ.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checking into the hotel I was treated very well be the front desk representative "Maine".The rooms are good size, which are clean and I had an amazing view of Los Angeles on the 11th floor. The food at their restaurant was amazing I had the house salad and fish tacos, for $15.00. The average cost of the dinners were between $15 to $20 a plate, the waitress did a good job no complaints on her. The best thing was the quality of the food was exceptionally delicious for the average to slightly high price of the meal, but it filled me up and did the job. Thank you the stay was well worth it and I will come back again. Enjoy the review from JJ.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r281684390-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>281684390</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Absolutely 5 star rating all around!!</t>
+  </si>
+  <si>
+    <t>I have stayed in hotels of all rates around the world.  I just spent a week with the incredible staff of the Holiday Inn Torrance and the service was "over the moon".  The reception desk called my by name from check-in every time they saw me,  The restaurant staff, including room service chef and delivery team were delightful and the food was mouth watering. I was teaching in the conference area each day and Michele and Rita could not have been more helpful. The shuttle driver went out of his way to accommodate my schedules.  The room was clean, neat and air conditioning worked great, but the team "made the stay"! I will definitely book there next trip as well because of the service "all around".  Well done Holiday Inn Team!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed in hotels of all rates around the world.  I just spent a week with the incredible staff of the Holiday Inn Torrance and the service was "over the moon".  The reception desk called my by name from check-in every time they saw me,  The restaurant staff, including room service chef and delivery team were delightful and the food was mouth watering. I was teaching in the conference area each day and Michele and Rita could not have been more helpful. The shuttle driver went out of his way to accommodate my schedules.  The room was clean, neat and air conditioning worked great, but the team "made the stay"! I will definitely book there next trip as well because of the service "all around".  Well done Holiday Inn Team!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r269815345-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>269815345</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Nice full service hotel with excellent service</t>
+  </si>
+  <si>
+    <t>Hotel was a pleasant surprise.  From the time we checked in the staff treated us wonderfully and helped us with maps print outs of places we were asking to go to.They have a nice breakfast buffet, full service restaurant and bar.  Hotel is easy access to highway which makes it easier to get around the area.We would consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Hotel was a pleasant surprise.  From the time we checked in the staff treated us wonderfully and helped us with maps print outs of places we were asking to go to.They have a nice breakfast buffet, full service restaurant and bar.  Hotel is easy access to highway which makes it easier to get around the area.We would consider staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r268328094-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>268328094</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Better elsewhere</t>
+  </si>
+  <si>
+    <t>Location: unless you have business in Torrance proper, its pretty inconvenient to everywhere.Rooms are ok but as with all HI's pillows: chunky, firm...always wake up with neck pain at HI and these smelled as though they had been spritzed with sickly sweet spray, disgusting almost nauseating smell. Is this because they just sray and dont chg and wash...dont know? In any event places like Marriott have much better beds and pillows.Tiny lounge.breakfast buffett: fake eggs tasted like cardboard, fruit was ok not great. Pleasant servers.Im 25 year pilot with major, Holiday Inn continues to be worst chain around. Go up the road to Ayers, better location , much better hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Location: unless you have business in Torrance proper, its pretty inconvenient to everywhere.Rooms are ok but as with all HI's pillows: chunky, firm...always wake up with neck pain at HI and these smelled as though they had been spritzed with sickly sweet spray, disgusting almost nauseating smell. Is this because they just sray and dont chg and wash...dont know? In any event places like Marriott have much better beds and pillows.Tiny lounge.breakfast buffett: fake eggs tasted like cardboard, fruit was ok not great. Pleasant servers.Im 25 year pilot with major, Holiday Inn continues to be worst chain around. Go up the road to Ayers, better location , much better hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r267396955-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>267396955</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>mini family vacation</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. The staff was friendly. We went during a busy time (Grand Prix) and so we weren't able to check in early-the rooms weren't ready til about 2:45pm but we were able to relax in the lobby as they have plenty of seating area plus a café/bar/gift shop to keep you busy. The pool was nice and lounge area there was big. The gym needs better ventilation. We can only get to the pool thru the gym and whew that gym odor was potent! the room was big and the bathroom was very roomy and clean but I did find a few long hairs on my pillows (its not mines because my hair is curly and brown). There is a fee for parking but since I joined their discount group thing it was free for the first time. We had breakfast at the café and the buffet was very good, but we did also order food and the waiter seemed lost a lot. He kept getting my moms order wrong and it just seemed like he didn't know what he was doing? but he was very nice. Overall a lovely place to stay that's inexpensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. The staff was friendly. We went during a busy time (Grand Prix) and so we weren't able to check in early-the rooms weren't ready til about 2:45pm but we were able to relax in the lobby as they have plenty of seating area plus a café/bar/gift shop to keep you busy. The pool was nice and lounge area there was big. The gym needs better ventilation. We can only get to the pool thru the gym and whew that gym odor was potent! the room was big and the bathroom was very roomy and clean but I did find a few long hairs on my pillows (its not mines because my hair is curly and brown). There is a fee for parking but since I joined their discount group thing it was free for the first time. We had breakfast at the café and the buffet was very good, but we did also order food and the waiter seemed lost a lot. He kept getting my moms order wrong and it just seemed like he didn't know what he was doing? but he was very nice. Overall a lovely place to stay that's inexpensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r263593650-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>263593650</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Good for an overnight, a little pricey for what you get, but clean</t>
+  </si>
+  <si>
+    <t>We stayed here before boarding a cruise ship docked just down the way.The room was OK, the food was OK, the prices were OK...nothing to make this place outstanding with the exception of the outstanding staff.Unfailingly polite and courteous, they were able to answer each question and meet every request.There is no refrigerator, the breakfast is not included.  Just a place to sleep overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded April 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here before boarding a cruise ship docked just down the way.The room was OK, the food was OK, the prices were OK...nothing to make this place outstanding with the exception of the outstanding staff.Unfailingly polite and courteous, they were able to answer each question and meet every request.There is no refrigerator, the breakfast is not included.  Just a place to sleep overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r260811195-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>260811195</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Average with poor internet connections</t>
+  </si>
+  <si>
+    <t>This is a decent hotel with fairly good sized rooms and a reasonable location from the airport.The rooms are clean and airy; the facilities are good BUTthe internet is not up to scratch. This is most important fro business travelers such as yours truly. I had to change over to a new room the 2nd night after i could not connect. Though it was ok after that for the next 4 nights, it was still patchy.Dinner service is ok with breakfast the usual standard stuff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>This is a decent hotel with fairly good sized rooms and a reasonable location from the airport.The rooms are clean and airy; the facilities are good BUTthe internet is not up to scratch. This is most important fro business travelers such as yours truly. I had to change over to a new room the 2nd night after i could not connect. Though it was ok after that for the next 4 nights, it was still patchy.Dinner service is ok with breakfast the usual standard stuff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r258606291-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>258606291</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>good for overnight stay</t>
+  </si>
+  <si>
+    <t>Needed a local hotel for a night and got a great deal thru Hotwire.com.  The staff was very nice &amp; accomodating.  The air conditioner was a little off, we couldn't get it from being to color or to hot.  Rooms were cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Needed a local hotel for a night and got a great deal thru Hotwire.com.  The staff was very nice &amp; accomodating.  The air conditioner was a little off, we couldn't get it from being to color or to hot.  Rooms were cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r253117048-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>253117048</t>
+  </si>
+  <si>
+    <t>02/07/2015</t>
+  </si>
+  <si>
+    <t>Very nice... Great Value!</t>
+  </si>
+  <si>
+    <t>This was my first stay at this HI, so I did not know what to expect. I stayed one night with my wife and daughter so we carried lite luggage. Upon arrival the place looked pretty well kept from the outside. Large parking lot and clean landscape. The lobby is spacious and checking in only took . Couple minutes. Although, I actually stood in line for a total of about 10-mins, the staff was working quickly to handle each patron. The Ginger Cafe, around the corner from the reception area, was very clean and comfortable. The elevators may take some time if the place is booked, as it was in our cases. (Sorority Anniversary, Asian Conference, 3-youth girls soccer teams) The room was clean, but had a couple of faint odors that we found... (Marijuana, and cigarette ashes)  The lotion bottle in the bathroom was partially used, but not an issue for us.  What we didn't like was the lack of privacy curtains. They had see-through ones, but nothing to shut out moon/sun light. Everything else was very nice, and for the price it couldn't be beat. Will definitely stay again in the future. HIGHLY RECOMMENDED!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>This was my first stay at this HI, so I did not know what to expect. I stayed one night with my wife and daughter so we carried lite luggage. Upon arrival the place looked pretty well kept from the outside. Large parking lot and clean landscape. The lobby is spacious and checking in only took . Couple minutes. Although, I actually stood in line for a total of about 10-mins, the staff was working quickly to handle each patron. The Ginger Cafe, around the corner from the reception area, was very clean and comfortable. The elevators may take some time if the place is booked, as it was in our cases. (Sorority Anniversary, Asian Conference, 3-youth girls soccer teams) The room was clean, but had a couple of faint odors that we found... (Marijuana, and cigarette ashes)  The lotion bottle in the bathroom was partially used, but not an issue for us.  What we didn't like was the lack of privacy curtains. They had see-through ones, but nothing to shut out moon/sun light. Everything else was very nice, and for the price it couldn't be beat. Will definitely stay again in the future. HIGHLY RECOMMENDED!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r252982847-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>252982847</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Perfectly fine.</t>
+  </si>
+  <si>
+    <t>Stayed in a suite -- spacious, quiet, and reasonably priced.  The only real drawback was having to pay $11 to park in a large lot that was mainly empty.  Otherwise, the staff were friendly and accommodating, and the location was convenient to the 405, but without a lot of traffic noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stayed in a suite -- spacious, quiet, and reasonably priced.  The only real drawback was having to pay $11 to park in a large lot that was mainly empty.  Otherwise, the staff were friendly and accommodating, and the location was convenient to the 405, but without a lot of traffic noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r250443096-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>250443096</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>This is probably the best Holiday Inn in Southern California</t>
+  </si>
+  <si>
+    <t>For me, there would probably be only one thing that keeps it from being a perfect hotel to stay:  an over abundance of Asian airlines flight crews that never seem to vacate the hotel lobby.  That's not such a terrible thing, but I don't know why the women from these airlines will spend over 10 hours confined in a large tin can of an airliner working the flight, and then spend another 10 minutes after they get a room assigned hanging out in the hallway outside my room chatting away like they haven't been in each other's company...MoreShow less</t>
+  </si>
+  <si>
+    <t>For me, there would probably be only one thing that keeps it from being a perfect hotel to stay:  an over abundance of Asian airlines flight crews that never seem to vacate the hotel lobby.  That's not such a terrible thing, but I don't know why the women from these airlines will spend over 10 hours confined in a large tin can of an airliner working the flight, and then spend another 10 minutes after they get a room assigned hanging out in the hallway outside my room chatting away like they haven't been in each other's company...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r245243228-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>245243228</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This was a very nice stay, just one nite, but very nice clean rooms and hotel in general seemed very clean. This property is a high rise and I believe we were on the 10th floor. Nice view at nite and the pool and hot tub is on the 3rd floor so it's quite and private, and very nice.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r241164026-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>241164026</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Awesome hotel close to LAX</t>
+  </si>
+  <si>
+    <t>I had a very enjoyable stay at the Holiday Inn Torrance recently. I was upgraded to an executive room on the top floor which included breakfast and evening drinks. In the weekend, the breakfast was in the main restaurant on the ground floor. The room was large and did everything it needed to do. The room had an awesome view and you could see the Goodyear Blimp taking off and landing which was breathtaking to see. Parking is plentiful and the WIFI was free and fast. The staff really are exceptional at this hotel. In particular, Maine and Rhyne on reception. They were so kind and helpful and always had a hello, or see you later, when I passed through reception. Oscar in the restaurant at breakfast time was awesome; he was always so friendly and considerate. There are so many choices of hotel in the LA area, but I always come back to the Holiday Inn Torrance. Yes it’s in an area of Company HQ’s etc, but it feels very safe. Everything else is a short drive away, so a car is probably essential. Try it, you won’t be disappointed!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I had a very enjoyable stay at the Holiday Inn Torrance recently. I was upgraded to an executive room on the top floor which included breakfast and evening drinks. In the weekend, the breakfast was in the main restaurant on the ground floor. The room was large and did everything it needed to do. The room had an awesome view and you could see the Goodyear Blimp taking off and landing which was breathtaking to see. Parking is plentiful and the WIFI was free and fast. The staff really are exceptional at this hotel. In particular, Maine and Rhyne on reception. They were so kind and helpful and always had a hello, or see you later, when I passed through reception. Oscar in the restaurant at breakfast time was awesome; he was always so friendly and considerate. There are so many choices of hotel in the LA area, but I always come back to the Holiday Inn Torrance. Yes it’s in an area of Company HQ’s etc, but it feels very safe. Everything else is a short drive away, so a car is probably essential. Try it, you won’t be disappointed!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r238377105-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>238377105</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Great for business.  Comfortable and Quiet.</t>
+  </si>
+  <si>
+    <t>I'm an IHG platinum member and I travel here on business quite often.  Between this hotel and the Crowne Plaza in San Pedro, I've probably stayed over 100 nights in 2014. so far so I'm very familiar with both hotels.Pros: The front desk staff is always cheerful and very helpful.  The business center is convenient if you need to print a boarding pass or check into a flight.It's always been quiet and I can always count on a good night's sleep here.  This hotel does a lot of business with airlines and business travelers.  I've never had a problem with noise.The restaurant has good food but the menu is a bit limited; If you've stayed at many Holiday Inn's you'll recognize the menu. The rooms are always clean and comfortable.  I stay at quite a few Holiday Inn's and I can always rely on a comfortable bed and pillows.The pool and spa are nice for a quick dip after the days work.  There is a small fitness center on-site (a few treadmills and a couple of machines). Cons: There is nothing within walking distance, but they do have a shuttle. So if you're in the mood for something other than the hotel restaurant, you can still get out.  Summary: Ideal for business travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I'm an IHG platinum member and I travel here on business quite often.  Between this hotel and the Crowne Plaza in San Pedro, I've probably stayed over 100 nights in 2014. so far so I'm very familiar with both hotels.Pros: The front desk staff is always cheerful and very helpful.  The business center is convenient if you need to print a boarding pass or check into a flight.It's always been quiet and I can always count on a good night's sleep here.  This hotel does a lot of business with airlines and business travelers.  I've never had a problem with noise.The restaurant has good food but the menu is a bit limited; If you've stayed at many Holiday Inn's you'll recognize the menu. The rooms are always clean and comfortable.  I stay at quite a few Holiday Inn's and I can always rely on a comfortable bed and pillows.The pool and spa are nice for a quick dip after the days work.  There is a small fitness center on-site (a few treadmills and a couple of machines). Cons: There is nothing within walking distance, but they do have a shuttle. So if you're in the mood for something other than the hotel restaurant, you can still get out.  Summary: Ideal for business travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r229261771-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>229261771</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Front of House Staff - Awesome!!...</t>
+  </si>
+  <si>
+    <t>Front of House Staff - top notch!!! Other staff - not so much!! Not so busy in restaurant that staff closed early - woman staff member didn't even look at you - must have been having a bad day...hotel operator was in the same league too, when I called to asked for some cutlery to be delivered to my room, she put me through to Room Service, and I was told to go downstairs to the restaurant to collect it myself!! mmmmmm ...where is the service?MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Julie R, General Manager at Holiday Inn Torrance, responded to this reviewResponded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Front of House Staff - top notch!!! Other staff - not so much!! Not so busy in restaurant that staff closed early - woman staff member didn't even look at you - must have been having a bad day...hotel operator was in the same league too, when I called to asked for some cutlery to be delivered to my room, she put me through to Room Service, and I was told to go downstairs to the restaurant to collect it myself!! mmmmmm ...where is the service?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r227173147-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>227173147</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>The most friendly staff ever</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights on our recent trip.  Right from the moment we arrived to when we checked out I have to say the staff were the most friendly we have ever experienced in a hotel.  5 stars for this. Maine in particular was very helpful on local beaches and things to do.The rooms were spacious, immaculate, so comfortable and to top it off for me they provided Bath and Body Works toiletries.  They even tolerated my endless requests for more obviously knowing these were heading straight to the suitcase.  It does seem at first this is in an industrial area however it was a 10 minute drive to Manhattan Beach which was far nicer than Venice Beach.  We went to the Del Amo shopping centre as this was around 10 minutes away.  We felt safe and secure in this property and I would certainly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights on our recent trip.  Right from the moment we arrived to when we checked out I have to say the staff were the most friendly we have ever experienced in a hotel.  5 stars for this. Maine in particular was very helpful on local beaches and things to do.The rooms were spacious, immaculate, so comfortable and to top it off for me they provided Bath and Body Works toiletries.  They even tolerated my endless requests for more obviously knowing these were heading straight to the suitcase.  It does seem at first this is in an industrial area however it was a 10 minute drive to Manhattan Beach which was far nicer than Venice Beach.  We went to the Del Amo shopping centre as this was around 10 minutes away.  We felt safe and secure in this property and I would certainly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r226397239-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>226397239</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>This was one of the few properties fairly close to downtown LA that would accost the Federal Government Lodging Rate on a weekend.  That alone, is worth something.  My check in was fast and the attendant was polite.  I got upgraded to a nice room on the corporate floor.  The room itself was clean and spacious.  The furniture and fixtures are due for an overhaul, but it wasn't bad.  The outdoor pool and jacuzzi on a 2nd or 3rd floor rooftop deck looked great, although I didn't use them.  It seemed like the gym equipment had been upgraded (a source of recent bad reviews.) This hotel is in a mixed use industrial area, although the surroundings seemed safe and clean.  I wasn't concerned for my safety or about leaving my car in the lot overnight.  Overall, I thought that this was a middle of the road Holiday Inn with convenient access to downtown.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This was one of the few properties fairly close to downtown LA that would accost the Federal Government Lodging Rate on a weekend.  That alone, is worth something.  My check in was fast and the attendant was polite.  I got upgraded to a nice room on the corporate floor.  The room itself was clean and spacious.  The furniture and fixtures are due for an overhaul, but it wasn't bad.  The outdoor pool and jacuzzi on a 2nd or 3rd floor rooftop deck looked great, although I didn't use them.  It seemed like the gym equipment had been upgraded (a source of recent bad reviews.) This hotel is in a mixed use industrial area, although the surroundings seemed safe and clean.  I wasn't concerned for my safety or about leaving my car in the lot overnight.  Overall, I thought that this was a middle of the road Holiday Inn with convenient access to downtown.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r222386613-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>222386613</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Hotel was nice for what we needed.</t>
+  </si>
+  <si>
+    <t>Hotel is located in an fair area not too close to freeway traffic but not near attractions either. The freeway was close that you could get to other places quickly. The room was clean and nice. The beds were a bit firm for my taste. The pillows were soft. The toiletries were nice. Plenty of parking no issues there. I was not impressed with the service nor the quality of the food in the restaurant. Our waiter did "check" on us if we needed anything. The hotel advertised "Starbucks" but it was merely a Keurig machine with Starbucks K-cups and charged like $2.50 for a k-cup. The immediate surrounding area was lacking in restaurants. There was one Thai restaurant that had great food. We were attending a family gathering so it was located near the family we were visiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is located in an fair area not too close to freeway traffic but not near attractions either. The freeway was close that you could get to other places quickly. The room was clean and nice. The beds were a bit firm for my taste. The pillows were soft. The toiletries were nice. Plenty of parking no issues there. I was not impressed with the service nor the quality of the food in the restaurant. Our waiter did "check" on us if we needed anything. The hotel advertised "Starbucks" but it was merely a Keurig machine with Starbucks K-cups and charged like $2.50 for a k-cup. The immediate surrounding area was lacking in restaurants. There was one Thai restaurant that had great food. We were attending a family gathering so it was located near the family we were visiting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r221449677-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>221449677</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Clean, quiet hotel</t>
+  </si>
+  <si>
+    <t>The room was clean and functional. We got a good night’s sleep on a comfortable bed and quiet room. The breakfast got us off to a good start. The room was large and the restaurant quieter than most.  Round trip cab cost to LAX was $90.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded August 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2014</t>
+  </si>
+  <si>
+    <t>The room was clean and functional. We got a good night’s sleep on a comfortable bed and quiet room. The breakfast got us off to a good start. The room was large and the restaurant quieter than most.  Round trip cab cost to LAX was $90.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r216891806-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>216891806</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Very good choice</t>
+  </si>
+  <si>
+    <t>Not sure if I got the room as an upgrade for my membership or was just regular, but I got an awesome suite for a regular price of a room. Next I stayed to an Intercontinental hotel with double the price, but I still liked this room more. Elegant, spacious, comfortable, just perfect. The restaurant offer a buffet in the morning, and a few items a la carte. The buffet was OK. The menu doesn't offer a larerge variety (not suitable to eat everyday if you stay long), but we have a dinner and was just delicious.It's a quite area, with no attractions very close, but with the car, in 20-30 min you could reach any attraction in LA area (beach, downtown, Hollywood studios...)Stayed 3 days with the family and loved the placeMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Not sure if I got the room as an upgrade for my membership or was just regular, but I got an awesome suite for a regular price of a room. Next I stayed to an Intercontinental hotel with double the price, but I still liked this room more. Elegant, spacious, comfortable, just perfect. The restaurant offer a buffet in the morning, and a few items a la carte. The buffet was OK. The menu doesn't offer a larerge variety (not suitable to eat everyday if you stay long), but we have a dinner and was just delicious.It's a quite area, with no attractions very close, but with the car, in 20-30 min you could reach any attraction in LA area (beach, downtown, Hollywood studios...)Stayed 3 days with the family and loved the placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r210082276-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>210082276</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Consistently Unremarkable</t>
+  </si>
+  <si>
+    <t>I'm out here hustling for the man and need somewhere to stay.We decided on this location because:A) It's close to our project location.B) It had a pool.C) It's close to our project location.The name of the review really sums it up. There's nothing noteworthy about the place. It's certainly not bad, but it's certainly not great. The rooms are clean, restaurant is ok, decor is boring. Just another business hotel.The guest book does point out the koi pond as a major feature of the facility. The koi pond is pretty average, though the koi were both plump and majestic.There is also a restaurant called the Ginger Cafe. I was disappointed to note that no dishes seemed to have ginger, nor did the staff have ginger hair. Though there only ever seems to be 3 staff in the entire restaurant, they do their best, but thats annoyingTo sum up, it's a fine hotel if you need somewhere to sleep. But that's about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded June 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2014</t>
+  </si>
+  <si>
+    <t>I'm out here hustling for the man and need somewhere to stay.We decided on this location because:A) It's close to our project location.B) It had a pool.C) It's close to our project location.The name of the review really sums it up. There's nothing noteworthy about the place. It's certainly not bad, but it's certainly not great. The rooms are clean, restaurant is ok, decor is boring. Just another business hotel.The guest book does point out the koi pond as a major feature of the facility. The koi pond is pretty average, though the koi were both plump and majestic.There is also a restaurant called the Ginger Cafe. I was disappointed to note that no dishes seemed to have ginger, nor did the staff have ginger hair. Though there only ever seems to be 3 staff in the entire restaurant, they do their best, but thats annoyingTo sum up, it's a fine hotel if you need somewhere to sleep. But that's about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r209846773-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>209846773</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We had two long flights all the way from Malaysia with transit of almost 10 hours in Narita before reaching LA, and of course the next best thing to do is to check into the hotel and take a nice bath before exploring the area. We checked into the hotel which was pre-booked before hand after getting the rented car. We stayed in the 14th floor for 3 nights. Rooms were cozy, spacious and clean. Our rooms comes with refrigerator which is convenient for us to store our cold drinks :) The staffs were friendly and helpful. We had coupons for breakfast which entitled us to have either the buffet spread (consist of scramble eggs, baked potatoes, sausages, crispy bacon, danish pastries, muffins, toast bread, fruits, milk and yogurt)  or Japanese breakfast. Coffee and fresh orange juice are served as well. We enjoyed our breakfast for sure and we were given cups to take away our coffee as well :) Definitely a comfortable place to stay and definitely will come back the next time i visit LA :)MoreShow less</t>
+  </si>
+  <si>
+    <t>We had two long flights all the way from Malaysia with transit of almost 10 hours in Narita before reaching LA, and of course the next best thing to do is to check into the hotel and take a nice bath before exploring the area. We checked into the hotel which was pre-booked before hand after getting the rented car. We stayed in the 14th floor for 3 nights. Rooms were cozy, spacious and clean. Our rooms comes with refrigerator which is convenient for us to store our cold drinks :) The staffs were friendly and helpful. We had coupons for breakfast which entitled us to have either the buffet spread (consist of scramble eggs, baked potatoes, sausages, crispy bacon, danish pastries, muffins, toast bread, fruits, milk and yogurt)  or Japanese breakfast. Coffee and fresh orange juice are served as well. We enjoyed our breakfast for sure and we were given cups to take away our coffee as well :) Definitely a comfortable place to stay and definitely will come back the next time i visit LA :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r207401782-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>207401782</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Great base for a LA visit</t>
+  </si>
+  <si>
+    <t>Not quite sure about all of these negative reviews, but I have just returned from a very comfortable 5 night stay here.
+We were checked in very quickly by a friendly and efficient member of staff (about 5pm 5/20/14) who explained about the facilities of the hotel before assigning us a room on the 10th floor. There are 3 elevators in this hotel and depending on how busy the lobby is you may have to wait a few minutes.
+The room itself was large with 2 soft beds with lovely soft linens and a  choice of pillows. The room had complimentary WiFi which was fantastic. I have to say we both had a fantastic few nights sleep here.
+The bathroom was lovely and large with lots of towels provided. 
+We went to the bar a few times and bought some drinks to the room, it was very reasonable priced for a hotel, however They could do with providing a drinks menu at the bar!
+I did have to make a complaint about the maid service which was dealt with promptly.
+I don't know about other people in the hotel but we felt perfectly safe regularly returning about 10pm, the car park was lit and there were plenty of spaces, also a bonus that it was free!
+I would definitely stay again if back in town, but you need to have a car if you stay here. It is in a...Not quite sure about all of these negative reviews, but I have just returned from a very comfortable 5 night stay here.We were checked in very quickly by a friendly and efficient member of staff (about 5pm 5/20/14) who explained about the facilities of the hotel before assigning us a room on the 10th floor. There are 3 elevators in this hotel and depending on how busy the lobby is you may have to wait a few minutes.The room itself was large with 2 soft beds with lovely soft linens and a  choice of pillows. The room had complimentary WiFi which was fantastic. I have to say we both had a fantastic few nights sleep here.The bathroom was lovely and large with lots of towels provided. We went to the bar a few times and bought some drinks to the room, it was very reasonable priced for a hotel, however They could do with providing a drinks menu at the bar!I did have to make a complaint about the maid service which was dealt with promptly.I don't know about other people in the hotel but we felt perfectly safe regularly returning about 10pm, the car park was lit and there were plenty of spaces, also a bonus that it was free!I would definitely stay again if back in town, but you need to have a car if you stay here. It is in a business district but there are great transport links to the interstates.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Not quite sure about all of these negative reviews, but I have just returned from a very comfortable 5 night stay here.
+We were checked in very quickly by a friendly and efficient member of staff (about 5pm 5/20/14) who explained about the facilities of the hotel before assigning us a room on the 10th floor. There are 3 elevators in this hotel and depending on how busy the lobby is you may have to wait a few minutes.
+The room itself was large with 2 soft beds with lovely soft linens and a  choice of pillows. The room had complimentary WiFi which was fantastic. I have to say we both had a fantastic few nights sleep here.
+The bathroom was lovely and large with lots of towels provided. 
+We went to the bar a few times and bought some drinks to the room, it was very reasonable priced for a hotel, however They could do with providing a drinks menu at the bar!
+I did have to make a complaint about the maid service which was dealt with promptly.
+I don't know about other people in the hotel but we felt perfectly safe regularly returning about 10pm, the car park was lit and there were plenty of spaces, also a bonus that it was free!
+I would definitely stay again if back in town, but you need to have a car if you stay here. It is in a...Not quite sure about all of these negative reviews, but I have just returned from a very comfortable 5 night stay here.We were checked in very quickly by a friendly and efficient member of staff (about 5pm 5/20/14) who explained about the facilities of the hotel before assigning us a room on the 10th floor. There are 3 elevators in this hotel and depending on how busy the lobby is you may have to wait a few minutes.The room itself was large with 2 soft beds with lovely soft linens and a  choice of pillows. The room had complimentary WiFi which was fantastic. I have to say we both had a fantastic few nights sleep here.The bathroom was lovely and large with lots of towels provided. We went to the bar a few times and bought some drinks to the room, it was very reasonable priced for a hotel, however They could do with providing a drinks menu at the bar!I did have to make a complaint about the maid service which was dealt with promptly.I don't know about other people in the hotel but we felt perfectly safe regularly returning about 10pm, the car park was lit and there were plenty of spaces, also a bonus that it was free!I would definitely stay again if back in town, but you need to have a car if you stay here. It is in a business district but there are great transport links to the interstates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r206522810-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>206522810</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>BAD LOCATION! NOT SAFE!</t>
+  </si>
+  <si>
+    <t>Im a crew member with a major airline. I cannot believe that my company would accommodate their front end staff at this property.The Hotel is located in a warehouse district.  The surrounding neighborhood is unsafe.  I suggest that you Pull up a crimes report for the area and you will see numerous assaults and crimes committed in the immediate area. Not safe to walk,jog,etc.The gym equipment is broken and need of repair.The hotel has a plumbing problem. Toilet backed up and water came up the shower drain. Called maintenance and they had to switch me top another room.This has happened to numerous crew members in other rooms.I feel like Im in Prison at this property. DEPRESSING! Alternate suggestion, The Torrance Marriott, The Torrance Double Tree near the mall and safe area.SHAME ON THE AIRLINE THAT WOULD ACCOMODATE THEIR CREW MEMBERS AT THIS PROPERTY!STAY CLEAR OF THE HOLIDAY INN TORRANCE!YOU NEED A CAR TO GO ANYWHERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Torrance, responded to this reviewResponded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Im a crew member with a major airline. I cannot believe that my company would accommodate their front end staff at this property.The Hotel is located in a warehouse district.  The surrounding neighborhood is unsafe.  I suggest that you Pull up a crimes report for the area and you will see numerous assaults and crimes committed in the immediate area. Not safe to walk,jog,etc.The gym equipment is broken and need of repair.The hotel has a plumbing problem. Toilet backed up and water came up the shower drain. Called maintenance and they had to switch me top another room.This has happened to numerous crew members in other rooms.I feel like Im in Prison at this property. DEPRESSING! Alternate suggestion, The Torrance Marriott, The Torrance Double Tree near the mall and safe area.SHAME ON THE AIRLINE THAT WOULD ACCOMODATE THEIR CREW MEMBERS AT THIS PROPERTY!STAY CLEAR OF THE HOLIDAY INN TORRANCE!YOU NEED A CAR TO GO ANYWHERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r206107003-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>206107003</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>industrial area. no where near the beach or anything else</t>
+  </si>
+  <si>
+    <t>When the van pulled up to the hotel, all I could think was where are we? I am a crew member with an airline and stay in hotels often. This hotel has been updated. The front desk is polite and friendly. However, the gym is dated and some of the cardio equipment doesn't work very well or at all..The location of this hotel is smack in the middle of an business/industrial area. There isn't much of anything to see or to walk to.You  need to have a car . There is a hotel shuttle that will take you with in a 5 mile radius. But Restaurants in walking distance are nearly non existent. While the room was updated, it wasnt very clean. There was mold in the corner of the tub and hair on the floor of the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>When the van pulled up to the hotel, all I could think was where are we? I am a crew member with an airline and stay in hotels often. This hotel has been updated. The front desk is polite and friendly. However, the gym is dated and some of the cardio equipment doesn't work very well or at all..The location of this hotel is smack in the middle of an business/industrial area. There isn't much of anything to see or to walk to.You  need to have a car . There is a hotel shuttle that will take you with in a 5 mile radius. But Restaurants in walking distance are nearly non existent. While the room was updated, it wasnt very clean. There was mold in the corner of the tub and hair on the floor of the bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r204884340-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>204884340</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Not what I thought</t>
+  </si>
+  <si>
+    <t>All of the LAX hotels were booked up, so my company found us rooms here. The hotel itself sits in a business park area so it's very quiet. Easy access to the interstate also. From the time we arrived till we left every employee was super friendly and professional. Check in at the front desk was fast and without any issue. My room was what you would expect. Basic king bed with a flat panel TV. Good A/C unit and a great bed. It's one of those bed's not to soft, not to hard with really good pillows. I slept good and breakfast the next morning was fine. The buffet was not real flash but the food was good quality and hot. My server was a great guy and brought me a coffee cup for the go. Honestly I had not stayed in a Holiday inn in years. This property and more importantly the employees really make this a great hotel. I highly recommend this place if you don't mind not staying near LAX. The drive was 20 minutes max down the 405.MoreShow less</t>
+  </si>
+  <si>
+    <t>All of the LAX hotels were booked up, so my company found us rooms here. The hotel itself sits in a business park area so it's very quiet. Easy access to the interstate also. From the time we arrived till we left every employee was super friendly and professional. Check in at the front desk was fast and without any issue. My room was what you would expect. Basic king bed with a flat panel TV. Good A/C unit and a great bed. It's one of those bed's not to soft, not to hard with really good pillows. I slept good and breakfast the next morning was fine. The buffet was not real flash but the food was good quality and hot. My server was a great guy and brought me a coffee cup for the go. Honestly I had not stayed in a Holiday inn in years. This property and more importantly the employees really make this a great hotel. I highly recommend this place if you don't mind not staying near LAX. The drive was 20 minutes max down the 405.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r203035690-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>203035690</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Well Worth a Stay!</t>
+  </si>
+  <si>
+    <t>I previously resisted staying here due to the fact that it's location was 10 minutes further away from my usual destination and surrounded by mostly offices and light industrial buildings. What a mistake! This proved to be one of the best Holiday Inns I've stayed at.All staff, without exception, were courteous and went out of their way to make sure I got what I needed - including allowing me to check it at Noon and calling housekeeping to find a room for me that was already cleaned.The overall "feel" of the hotel is that it is clean, well-kept and modern. Common areas are attractive. My room on the 14th floor was immaculate, quiet and came with a bonus of a great view.I will most definitely return to this hotel again. I'm a new fan of the Holiday Inn Torrance!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded May 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2014</t>
+  </si>
+  <si>
+    <t>I previously resisted staying here due to the fact that it's location was 10 minutes further away from my usual destination and surrounded by mostly offices and light industrial buildings. What a mistake! This proved to be one of the best Holiday Inns I've stayed at.All staff, without exception, were courteous and went out of their way to make sure I got what I needed - including allowing me to check it at Noon and calling housekeeping to find a room for me that was already cleaned.The overall "feel" of the hotel is that it is clean, well-kept and modern. Common areas are attractive. My room on the 14th floor was immaculate, quiet and came with a bonus of a great view.I will most definitely return to this hotel again. I'm a new fan of the Holiday Inn Torrance!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r201799252-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>201799252</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Convenient location not great neighborhood</t>
+  </si>
+  <si>
+    <t>Nice rooms and staff.  Very good value, but certainly not a vacation location.  The rooms were clean the restaurant was good, and staff was helpful and friendly.  The location makes very easy to get to many places quickly.  I would not be comfortable walking around outside in the evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Nice rooms and staff.  Very good value, but certainly not a vacation location.  The rooms were clean the restaurant was good, and staff was helpful and friendly.  The location makes very easy to get to many places quickly.  I would not be comfortable walking around outside in the evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r201269282-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>201269282</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Super friendly service and great value</t>
+  </si>
+  <si>
+    <t>This isn't a place you go for a week's vacation, but overall the hotel was great for the one night we stayed.  The front desk staff was extremely friendly and professional. We arrived in the evening so were able to get right to our room.  It was a nice room and looked almost new.  Nice big bathroom, great toiletries.  Our view was ugly but for one night we didn't care, and we got a great AAA rate!  The only negative is that there was leftover snack food crumbs under a chair which we didn't notice until morning.  Would definitely recommend for a short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This isn't a place you go for a week's vacation, but overall the hotel was great for the one night we stayed.  The front desk staff was extremely friendly and professional. We arrived in the evening so were able to get right to our room.  It was a nice room and looked almost new.  Nice big bathroom, great toiletries.  Our view was ugly but for one night we didn't care, and we got a great AAA rate!  The only negative is that there was leftover snack food crumbs under a chair which we didn't notice until morning.  Would definitely recommend for a short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r197590135-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>197590135</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>It's ok</t>
+  </si>
+  <si>
+    <t>Not much to say. It's ok plAce to sleep. Door knob on bathroom was broken. The cafe was ok expensive food terrible seemed microwave. Pretty fish pond. Not much else to say. I think hotels should get rid of tubs and just have walk-in showers if they don't have large whirl pool tubs.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Torrance, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Not much to say. It's ok plAce to sleep. Door knob on bathroom was broken. The cafe was ok expensive food terrible seemed microwave. Pretty fish pond. Not much else to say. I think hotels should get rid of tubs and just have walk-in showers if they don't have large whirl pool tubs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r197308421-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>197308421</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Not a holiday at Holiday Inn Torrance</t>
+  </si>
+  <si>
+    <t>Overall experience in the hotel was average and the price we paid was a bit over-priced.  The entrance to the hotel from Vermont avenue was not easily accessible.  There was no signage. The entrance is also the exit and it was narrow..so that said, one should be very careful coming in and going out of the premises.Their beds were VERY OLD and they squeaked.  They were the most uncomfortable beds I've ever laid on.  They need to replace them ASAP.  The carpet in the bedroom and along the hallways were dated.  However, I have to say that overall the hotel was clean.  There were many parking spaces, well-lit and the grounds were clean.The staff were friendly and helpful.  I would rate the service they provided as high.Unfortunately, we did not have a chance to patronize their restaurant/lounge as there were many restaurants near the hotel.Are we staying there again? Yes if they change their beds  :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Torrance, responded to this reviewResponded March 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2014</t>
+  </si>
+  <si>
+    <t>Overall experience in the hotel was average and the price we paid was a bit over-priced.  The entrance to the hotel from Vermont avenue was not easily accessible.  There was no signage. The entrance is also the exit and it was narrow..so that said, one should be very careful coming in and going out of the premises.Their beds were VERY OLD and they squeaked.  They were the most uncomfortable beds I've ever laid on.  They need to replace them ASAP.  The carpet in the bedroom and along the hallways were dated.  However, I have to say that overall the hotel was clean.  There were many parking spaces, well-lit and the grounds were clean.The staff were friendly and helpful.  I would rate the service they provided as high.Unfortunately, we did not have a chance to patronize their restaurant/lounge as there were many restaurants near the hotel.Are we staying there again? Yes if they change their beds  :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r197073915-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>197073915</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn Torrance An Excellent Choice</t>
+  </si>
+  <si>
+    <t>Holiday Inn Torrance is in a great location between LA and the beautiful beaches. Holiday Inn Torrance is clean, comfortable, and staff are friendly. Julio, the manager made sure everything was comfortable for us. The food and the service in the restaurant was also very good. The pool and Jacuzzi were outstanding. The hotel is a full service hotel, beautiful, comfortable, and staff are great. I would highly recommend this hotel, and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn Torrance is in a great location between LA and the beautiful beaches. Holiday Inn Torrance is clean, comfortable, and staff are friendly. Julio, the manager made sure everything was comfortable for us. The food and the service in the restaurant was also very good. The pool and Jacuzzi were outstanding. The hotel is a full service hotel, beautiful, comfortable, and staff are great. I would highly recommend this hotel, and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r186602093-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>186602093</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Family oriented very friendly</t>
+  </si>
+  <si>
+    <t>My husband stays at this hotel weekly for about 180 weeks. Do to his job. He's stayed at several local hotels in the area. And he prefers to stay here because the bar tender Oscar goes out of his way to make you feels welcome. He's like family.and the girls at the counter are very kind and always refer to us by Mr and Mrs..friendly and professional.  I love this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded December 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2013</t>
+  </si>
+  <si>
+    <t>My husband stays at this hotel weekly for about 180 weeks. Do to his job. He's stayed at several local hotels in the area. And he prefers to stay here because the bar tender Oscar goes out of his way to make you feels welcome. He's like family.and the girls at the counter are very kind and always refer to us by Mr and Mrs..friendly and professional.  I love this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r183563373-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>183563373</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, bit of a drive</t>
+  </si>
+  <si>
+    <t>We were only in LA for one night and found this to be a great option. It was a good price and had good reviews, and though it was a 30 minute drive from the event we were attending, we went for it. After staying here, I still think it was a good choice! The property is nice from the outside, easy access to freeways, and the lobby and restaurant area were nice as well. Check-in was easy, staff was polite, security is good as you must use your room key to go up the elevator to most floors and the room was clean and somewhat updated. It could use a few more updates, but for a one night stay, it was all we needed. Even had a refrigerator, which is becoming standard nowadays. The only negative was the room service food wasn't all that great. We ordered dinner &amp; breakfast. Both could be improved upon. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2013</t>
+  </si>
+  <si>
+    <t>We were only in LA for one night and found this to be a great option. It was a good price and had good reviews, and though it was a 30 minute drive from the event we were attending, we went for it. After staying here, I still think it was a good choice! The property is nice from the outside, easy access to freeways, and the lobby and restaurant area were nice as well. Check-in was easy, staff was polite, security is good as you must use your room key to go up the elevator to most floors and the room was clean and somewhat updated. It could use a few more updates, but for a one night stay, it was all we needed. Even had a refrigerator, which is becoming standard nowadays. The only negative was the room service food wasn't all that great. We ordered dinner &amp; breakfast. Both could be improved upon. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r182549829-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>182549829</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>We have stayed at the Holiday Inn Torrance two years in a row for Oktoberfest at Alpine Village, which is nearby. The guy who checked us in let us know there is a shuttle to Alpine Village, which we were unaware of. This Holiday Inn has a Japanese style feel, probably because many of its clientele are from Japan. We got a suite this time, and it has Japanese style sliding doors. The artwork is also Japanese. The bed is perfect. It is not too firm and not too soft. The pillows are tiny, but I don't have a problem with them. I love that this suite has 2 air conditioners. We have stayed at other hotels suites where there was only one.I also noticed the TV remotes actually match the TV and look brand new. They have all the functionality. They are not the tiny generic ones that you've seen at other hotels.The Holiday Inn Torrance has the quality of a fine hotel, but at a much lower cost. This is one of my favorite places I have ever stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at the Holiday Inn Torrance two years in a row for Oktoberfest at Alpine Village, which is nearby. The guy who checked us in let us know there is a shuttle to Alpine Village, which we were unaware of. This Holiday Inn has a Japanese style feel, probably because many of its clientele are from Japan. We got a suite this time, and it has Japanese style sliding doors. The artwork is also Japanese. The bed is perfect. It is not too firm and not too soft. The pillows are tiny, but I don't have a problem with them. I love that this suite has 2 air conditioners. We have stayed at other hotels suites where there was only one.I also noticed the TV remotes actually match the TV and look brand new. They have all the functionality. They are not the tiny generic ones that you've seen at other hotels.The Holiday Inn Torrance has the quality of a fine hotel, but at a much lower cost. This is one of my favorite places I have ever stayed at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r178335201-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>178335201</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Slow internet and loud music</t>
+  </si>
+  <si>
+    <t>Stayed one night (saturday). Was kept awake by loud music playing till 1 am, the internet was slow and half the TV channels stopped working during the evening. Very disappointing experience compared to other Holiday Inn hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Front Office Manager at Holiday Inn Torrance, responded to this reviewResponded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Stayed one night (saturday). Was kept awake by loud music playing till 1 am, the internet was slow and half the TV channels stopped working during the evening. Very disappointing experience compared to other Holiday Inn hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r175917529-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>175917529</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Clean, quiet, dog-friendly!</t>
+  </si>
+  <si>
+    <t>We booked here over Labor Day weekend at last minute; and to be able to get a dog-friendly hotel for barely over $100 was a great deal! The pet deposit is refundable, which is great because my dogs don't make a mess of a hotel room, so I hate paying a non-refundable fee for no good reason. The whole hotel is clean and staff is very friendly and helpful. The beds were comfortable and the bathroom was very nice and modern. It is in an Industrial section, so it's quiet and safe (which can be stressful to find in LA if you don't know the areas). I would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>We booked here over Labor Day weekend at last minute; and to be able to get a dog-friendly hotel for barely over $100 was a great deal! The pet deposit is refundable, which is great because my dogs don't make a mess of a hotel room, so I hate paying a non-refundable fee for no good reason. The whole hotel is clean and staff is very friendly and helpful. The beds were comfortable and the bathroom was very nice and modern. It is in an Industrial section, so it's quiet and safe (which can be stressful to find in LA if you don't know the areas). I would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r175591078-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>175591078</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Good, Clean Place to Stay</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times for business.  It is definitely a business-oriented facility, but is also popular with youth sports teams as well.  It is near the Stub Hub Center where the LA Galaxy and Chivas USA play and CSU Dominguez Hills.  The bar is pleasent and the dining seems adequate for most.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded September 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times for business.  It is definitely a business-oriented facility, but is also popular with youth sports teams as well.  It is near the Stub Hub Center where the LA Galaxy and Chivas USA play and CSU Dominguez Hills.  The bar is pleasent and the dining seems adequate for most.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r171242379-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>171242379</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>comfortable and safe place</t>
+  </si>
+  <si>
+    <t>The receptionist is very helpful. The room is clean, bed is comfy. We feel safe because no one can go up in the rooms if you don't have the card key given to each customers. we did not try their restaurant because there are a lot of Asian eating places in the vicinity.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2013</t>
+  </si>
+  <si>
+    <t>The receptionist is very helpful. The room is clean, bed is comfy. We feel safe because no one can go up in the rooms if you don't have the card key given to each customers. we did not try their restaurant because there are a lot of Asian eating places in the vicinity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r170585378-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>170585378</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel, but in the Middle of Nowhere</t>
+  </si>
+  <si>
+    <t>I did not know Torrance, but decided to stay here while visiting Los Angeles, since we had a car.The hotel is great, clean and have lots of amenities (outdoor pool, jacuzzi, gym, restaurant/bar, free wifi, free parking, etc).  The rooms are big, clean, well maintained and with brand new furniture and decor.  The beds were extremely comfortable.The only problem with this hotel is the location, in the middle of nowhere.  There is nothing to do around, unless you use your car.  But still, the location is just outside route 405, which takes you anywhere in Los Angeles.  If you go to the beach, there is a 15' drive to Redondo Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2013</t>
+  </si>
+  <si>
+    <t>I did not know Torrance, but decided to stay here while visiting Los Angeles, since we had a car.The hotel is great, clean and have lots of amenities (outdoor pool, jacuzzi, gym, restaurant/bar, free wifi, free parking, etc).  The rooms are big, clean, well maintained and with brand new furniture and decor.  The beds were extremely comfortable.The only problem with this hotel is the location, in the middle of nowhere.  There is nothing to do around, unless you use your car.  But still, the location is just outside route 405, which takes you anywhere in Los Angeles.  If you go to the beach, there is a 15' drive to Redondo Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r167471842-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>167471842</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Overall very comfortable</t>
+  </si>
+  <si>
+    <t>This was my first time staying at a Holiday Inn, I usually try to stay at a Marriott because they are always nice and clean.  Our room, 505, is decorated nicely and the restroom as well.  The room is clean for the most part but I did find several stains on the carpet and what appeared to be a fruit seed on the floor, not there because of us.  Carpet, restroom, and bedding cleanliness are my top priorities when traveling.  The restroom was clean but the tub was clogged.  I called the front desk and they sent someone to fix it even at 11PM.  The small refrigerator needs to be defrosted so we weren't able to use it and I ended up having to keep filling my ice chest with ice daily.  The Internet is slow and the pool closes at 9PM.  I know like it sounds as if I was not happy with my stay but I was.  The room is elegant and clean, the restroom is covered in marble and granite.  I felt comfortable with my kids walking around barefoot.  The staff was pleasant, from the lady in the lobby to the maintenance man.  Our room was quiet which is also important to me.  I don't mind paying extra for a nicer room.  I do recommend this hotel and would return again.  I would've rated this a 5 if not for those minor issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>This was my first time staying at a Holiday Inn, I usually try to stay at a Marriott because they are always nice and clean.  Our room, 505, is decorated nicely and the restroom as well.  The room is clean for the most part but I did find several stains on the carpet and what appeared to be a fruit seed on the floor, not there because of us.  Carpet, restroom, and bedding cleanliness are my top priorities when traveling.  The restroom was clean but the tub was clogged.  I called the front desk and they sent someone to fix it even at 11PM.  The small refrigerator needs to be defrosted so we weren't able to use it and I ended up having to keep filling my ice chest with ice daily.  The Internet is slow and the pool closes at 9PM.  I know like it sounds as if I was not happy with my stay but I was.  The room is elegant and clean, the restroom is covered in marble and granite.  I felt comfortable with my kids walking around barefoot.  The staff was pleasant, from the lady in the lobby to the maintenance man.  Our room was quiet which is also important to me.  I don't mind paying extra for a nicer room.  I do recommend this hotel and would return again.  I would've rated this a 5 if not for those minor issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r164217491-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>164217491</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel for a pleasant night's sleep</t>
+  </si>
+  <si>
+    <t>We needed a local hotel while our home was being tented and found this one ....we were delighted with our visit.  We had our big (80 lb )German Shepherd with us.  They are definitely a dog-friendly hotel with a little designated walking area outside.  The room was large, very clean, very comfortable and well appointed.  We ate dinner and breakfast in the hotel.  the food was good and the service was excellent.  In fact, the service was excellent everywhere:  at the front desk, housekeeping, and the restaurant.  Traveling here is very convenient because it is right next to two major freeways.  That said, there is NO freeway noise at the hotel.  We had a very quiet,comfortable night's sleep.  We would not hesitate to recommend this Holiday Inn  to any of our friends who needed a local hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded June 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2013</t>
+  </si>
+  <si>
+    <t>We needed a local hotel while our home was being tented and found this one ....we were delighted with our visit.  We had our big (80 lb )German Shepherd with us.  They are definitely a dog-friendly hotel with a little designated walking area outside.  The room was large, very clean, very comfortable and well appointed.  We ate dinner and breakfast in the hotel.  the food was good and the service was excellent.  In fact, the service was excellent everywhere:  at the front desk, housekeeping, and the restaurant.  Traveling here is very convenient because it is right next to two major freeways.  That said, there is NO freeway noise at the hotel.  We had a very quiet,comfortable night's sleep.  We would not hesitate to recommend this Holiday Inn  to any of our friends who needed a local hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r163619530-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>163619530</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>If You Have To Be In Torrance...</t>
+  </si>
+  <si>
+    <t>Or Compton or Carson this is a good choice.  The rooms are nice enough, the bed was comfy.  Bathroom was clean and the internet worked just fine.The restaurant is pretty decent, and they serve bento boxes, much to the delight of my Japanese colleagues.  Some nights they feature a laid back trio in the lounge, and I enjoyed listening to them.This hotel isn't near anything, so a car is a necessity - but then, in SoCal a car is a necessity anyway. AND this hotel is only 20 minutes to LAX, an easy shot up the 405.If you happen to be a member of HI's priority club, they do treat you pretty well up on the 14th floor in the lounge.  Overall, this is a pretty decent property, and I'm sure I'll be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Or Compton or Carson this is a good choice.  The rooms are nice enough, the bed was comfy.  Bathroom was clean and the internet worked just fine.The restaurant is pretty decent, and they serve bento boxes, much to the delight of my Japanese colleagues.  Some nights they feature a laid back trio in the lounge, and I enjoyed listening to them.This hotel isn't near anything, so a car is a necessity - but then, in SoCal a car is a necessity anyway. AND this hotel is only 20 minutes to LAX, an easy shot up the 405.If you happen to be a member of HI's priority club, they do treat you pretty well up on the 14th floor in the lounge.  Overall, this is a pretty decent property, and I'm sure I'll be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r162774404-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>162774404</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>A tired hotel. Needs updating. Clean rooms. Not much close by</t>
+  </si>
+  <si>
+    <t>You need a car when staying at this hotel as there is nothing close by. Good if you want to travel around the area without getting stuck in LA traffic. For me the location worked well for my business meetings and access to the airport. However the hotel was tired and in need of an update. Food not great, service in the restaurant not great either. Rooms tired but clearMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Torrance, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>You need a car when staying at this hotel as there is nothing close by. Good if you want to travel around the area without getting stuck in LA traffic. For me the location worked well for my business meetings and access to the airport. However the hotel was tired and in need of an update. Food not great, service in the restaurant not great either. Rooms tired but clearMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r160570804-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>160570804</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Awesome Holiday Inn! My home away from home!</t>
+  </si>
+  <si>
+    <t>My son and I won tickets to Wango Tango 2013, our hotel was Holiday Inn in Torrance Calif., We had checked in with Maine (that's his name), he was so kind and caring, he made us feel like we were Rock Stars! Ross and Richard drove us to Redondo Beach and to the Venue at Home Depot Center. Both of them were so nice and professional! Our room was Fantastic, it overlooked the pool deck and all around coverage of beautiful views of the mountains, city, and just incredible views at night! Our room was clean, beautiful and cozy beds! We also eat most of our meals there at the Ginger Lounge, our server was Sergio, wow, he was friendly, kind and caring always a big smile on his face to greet us! We had dinners, breakfast, snacks all of the meals were fresh, hot and great tasting! I highly recommend this Holiday Inn any time your in the Los Angeles area! They all gave my son and I a new place to call home!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>My son and I won tickets to Wango Tango 2013, our hotel was Holiday Inn in Torrance Calif., We had checked in with Maine (that's his name), he was so kind and caring, he made us feel like we were Rock Stars! Ross and Richard drove us to Redondo Beach and to the Venue at Home Depot Center. Both of them were so nice and professional! Our room was Fantastic, it overlooked the pool deck and all around coverage of beautiful views of the mountains, city, and just incredible views at night! Our room was clean, beautiful and cozy beds! We also eat most of our meals there at the Ginger Lounge, our server was Sergio, wow, he was friendly, kind and caring always a big smile on his face to greet us! We had dinners, breakfast, snacks all of the meals were fresh, hot and great tasting! I highly recommend this Holiday Inn any time your in the Los Angeles area! They all gave my son and I a new place to call home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r160122271-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>160122271</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Recently Renovated with Red Carpet Service!</t>
+  </si>
+  <si>
+    <t>10+++Excellent Service! If you belong to their 'Priority Rewards' program, free to sign up, you get treated like Kings &amp; Queens! Beautiful, Recently Renovated. Very Clean.  Made a Same day Reservation, Sat. night. At check in we claimed our 2 Complimentary Drink Tickets at the hotel Bar, along with 2 Complimentary Breakfast Buffet tickets (included tax &amp; tip!) for the following morning. We had a very nice room with a view (freeway :D) on the 10th floor. The hotel is approximately 15 min. from the beach, but Well Worth the Experience! I Suggest this hotel to Anyone staying in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded May 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2013</t>
+  </si>
+  <si>
+    <t>10+++Excellent Service! If you belong to their 'Priority Rewards' program, free to sign up, you get treated like Kings &amp; Queens! Beautiful, Recently Renovated. Very Clean.  Made a Same day Reservation, Sat. night. At check in we claimed our 2 Complimentary Drink Tickets at the hotel Bar, along with 2 Complimentary Breakfast Buffet tickets (included tax &amp; tip!) for the following morning. We had a very nice room with a view (freeway :D) on the 10th floor. The hotel is approximately 15 min. from the beach, but Well Worth the Experience! I Suggest this hotel to Anyone staying in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r159941647-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>159941647</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Friendly and Helpful</t>
+  </si>
+  <si>
+    <t>We stayed two nights and it was very clean and relaxing. We had breakfast at the hotel restaurant and it was very delicious!! Will stay again when in the area!! Was close to the event we were participating. Helpful with directions.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed two nights and it was very clean and relaxing. We had breakfast at the hotel restaurant and it was very delicious!! Will stay again when in the area!! Was close to the event we were participating. Helpful with directions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r155234227-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>155234227</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Fantastic Business Hotel</t>
+  </si>
+  <si>
+    <t>I was here only 1 night, but it was fantastic. As a platinum member, I stay at Holiday Inn's alot. This was a very nice hotel. The staff at check in were fantastic and I got a very nice room upgrade. The suite was spacious, clean and well maintained. The hotel was quiet and I was able to get some much needed rest. I always look for the quality of the shower and it did not disappoint. Beds were comfortable. If you plan on being in Torrance and need a nice hotel this one will not disappoint. The only down side is there isnt alot of places to eat in the vicinity, so plan on driving a little bit.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>I was here only 1 night, but it was fantastic. As a platinum member, I stay at Holiday Inn's alot. This was a very nice hotel. The staff at check in were fantastic and I got a very nice room upgrade. The suite was spacious, clean and well maintained. The hotel was quiet and I was able to get some much needed rest. I always look for the quality of the shower and it did not disappoint. Beds were comfortable. If you plan on being in Torrance and need a nice hotel this one will not disappoint. The only down side is there isnt alot of places to eat in the vicinity, so plan on driving a little bit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r154630733-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>154630733</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Nice Business Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here 4 nights for a business trip. The staff were helpful and friendly, the rooms were clean and I really enjoyed the stay. I ate breakfast in the restaurant, the food was ok, but again the staff were extremely friendly and helpful. As another reviewer mention, it would be nice if there were more dining options close to the hotel, but I don't see that as the fault of the hotel itself.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>HolidayInnTorrance, Revenue Coordinator at Holiday Inn Torrance, responded to this reviewResponded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here 4 nights for a business trip. The staff were helpful and friendly, the rooms were clean and I really enjoyed the stay. I ate breakfast in the restaurant, the food was ok, but again the staff were extremely friendly and helpful. As another reviewer mention, it would be nice if there were more dining options close to the hotel, but I don't see that as the fault of the hotel itself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r153979234-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>153979234</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>Thanks to Chelica, the check in &amp; check out was friendly and efficient.Room was clean and a good size. Bed was very comfortable but the small square pillows were not. Bathroom is clean and shower pressure was quite good. Breakfast buffet was less than average and the hot food was not even warm. Coffee was good. Area is very quite since it is in a business park. I would stay here again but would order from the menu and forego the buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Torrance, responded to this reviewResponded March 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2013</t>
+  </si>
+  <si>
+    <t>Thanks to Chelica, the check in &amp; check out was friendly and efficient.Room was clean and a good size. Bed was very comfortable but the small square pillows were not. Bathroom is clean and shower pressure was quite good. Breakfast buffet was less than average and the hot food was not even warm. Coffee was good. Area is very quite since it is in a business park. I would stay here again but would order from the menu and forego the buffet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r149860874-Holiday_Inn_Torrance-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>149860874</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Just a typical Holiday Inn</t>
+  </si>
+  <si>
+    <t>Nothing special here. Boring old Holiday Inn hotel. Rooms are quite worn out, but bed are comfy. I would say that price is to high for this class hotel. Breakfast is ok. Staff is kind and friendly. Hotel has a pool, but it was just too cold to test it. Go with a room on top floors, they are much quieter.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Torrance, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Nothing special here. Boring old Holiday Inn hotel. Rooms are quite worn out, but bed are comfy. I would say that price is to high for this class hotel. Breakfast is ok. Staff is kind and friendly. Hotel has a pool, but it was just too cold to test it. Go with a room on top floors, they are much quieter.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2213,4385 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>220</v>
+      </c>
+      <c r="X27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>236</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>220</v>
+      </c>
+      <c r="X28" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>236</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s">
+        <v>283</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>297</v>
+      </c>
+      <c r="X36" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" t="s">
+        <v>302</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>305</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>306</v>
+      </c>
+      <c r="X37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>255</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>314</v>
+      </c>
+      <c r="X38" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>305</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>314</v>
+      </c>
+      <c r="X39" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s">
+        <v>178</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>328</v>
+      </c>
+      <c r="X40" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>331</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>332</v>
+      </c>
+      <c r="J41" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" t="s">
+        <v>334</v>
+      </c>
+      <c r="L41" t="s">
+        <v>335</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>305</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>344</v>
+      </c>
+      <c r="X42" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>344</v>
+      </c>
+      <c r="X43" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O44" t="s">
+        <v>236</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>359</v>
+      </c>
+      <c r="X44" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s">
+        <v>365</v>
+      </c>
+      <c r="L45" t="s">
+        <v>366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>367</v>
+      </c>
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>359</v>
+      </c>
+      <c r="X45" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" t="s">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s">
+        <v>373</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>358</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>359</v>
+      </c>
+      <c r="X46" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>375</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>376</v>
+      </c>
+      <c r="J47" t="s">
+        <v>377</v>
+      </c>
+      <c r="K47" t="s">
+        <v>378</v>
+      </c>
+      <c r="L47" t="s">
+        <v>379</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>367</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>388</v>
+      </c>
+      <c r="X48" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>392</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>396</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>397</v>
+      </c>
+      <c r="X49" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s">
+        <v>404</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>405</v>
+      </c>
+      <c r="X50" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>409</v>
+      </c>
+      <c r="J51" t="s">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s">
+        <v>411</v>
+      </c>
+      <c r="L51" t="s">
+        <v>412</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>178</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>414</v>
+      </c>
+      <c r="X51" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>417</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>418</v>
+      </c>
+      <c r="J52" t="s">
+        <v>419</v>
+      </c>
+      <c r="K52" t="s">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s">
+        <v>421</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>413</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>422</v>
+      </c>
+      <c r="X52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>426</v>
+      </c>
+      <c r="J53" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" t="s">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s">
+        <v>429</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>431</v>
+      </c>
+      <c r="X53" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>434</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>435</v>
+      </c>
+      <c r="J54" t="s">
+        <v>436</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s">
+        <v>438</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>430</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>439</v>
+      </c>
+      <c r="X54" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>442</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>443</v>
+      </c>
+      <c r="J55" t="s">
+        <v>444</v>
+      </c>
+      <c r="K55" t="s">
+        <v>445</v>
+      </c>
+      <c r="L55" t="s">
+        <v>446</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>448</v>
+      </c>
+      <c r="X55" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>451</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>452</v>
+      </c>
+      <c r="J56" t="s">
+        <v>453</v>
+      </c>
+      <c r="K56" t="s">
+        <v>454</v>
+      </c>
+      <c r="L56" t="s">
+        <v>455</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>456</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>457</v>
+      </c>
+      <c r="X56" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>447</v>
+      </c>
+      <c r="O57" t="s">
+        <v>178</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>465</v>
+      </c>
+      <c r="X57" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>456</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>473</v>
+      </c>
+      <c r="X58" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>481</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>486</v>
+      </c>
+      <c r="J60" t="s">
+        <v>487</v>
+      </c>
+      <c r="K60" t="s">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s">
+        <v>489</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>481</v>
+      </c>
+      <c r="O60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>490</v>
+      </c>
+      <c r="X60" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>493</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>494</v>
+      </c>
+      <c r="J61" t="s">
+        <v>495</v>
+      </c>
+      <c r="K61" t="s">
+        <v>496</v>
+      </c>
+      <c r="L61" t="s">
+        <v>497</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>498</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>499</v>
+      </c>
+      <c r="X61" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>502</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>503</v>
+      </c>
+      <c r="J62" t="s">
+        <v>504</v>
+      </c>
+      <c r="K62" t="s">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s">
+        <v>506</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>507</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>508</v>
+      </c>
+      <c r="X62" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>516</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>517</v>
+      </c>
+      <c r="X63" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>520</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>521</v>
+      </c>
+      <c r="J64" t="s">
+        <v>522</v>
+      </c>
+      <c r="K64" t="s">
+        <v>523</v>
+      </c>
+      <c r="L64" t="s">
+        <v>524</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>516</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>517</v>
+      </c>
+      <c r="X64" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>527</v>
+      </c>
+      <c r="J65" t="s">
+        <v>528</v>
+      </c>
+      <c r="K65" t="s">
+        <v>529</v>
+      </c>
+      <c r="L65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>531</v>
+      </c>
+      <c r="O65" t="s">
+        <v>73</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>532</v>
+      </c>
+      <c r="X65" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>535</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>536</v>
+      </c>
+      <c r="J66" t="s">
+        <v>537</v>
+      </c>
+      <c r="K66" t="s">
+        <v>538</v>
+      </c>
+      <c r="L66" t="s">
+        <v>539</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>540</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>541</v>
+      </c>
+      <c r="X66" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>544</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>545</v>
+      </c>
+      <c r="J67" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" t="s">
+        <v>547</v>
+      </c>
+      <c r="L67" t="s">
+        <v>548</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>531</v>
+      </c>
+      <c r="O67" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>549</v>
+      </c>
+      <c r="X67" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>21893</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="J68" t="s">
+        <v>554</v>
+      </c>
+      <c r="K68" t="s">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>556</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>557</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>558</v>
+      </c>
+      <c r="X68" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>560</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_385.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_385.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="628">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>VictoriaAllen</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>This was my family’s first time staying here at this Holiday Inn. I grew up in Torrance and my parents literally live minutes away from this property.The property itself is located in a more industrial part of Torrance so places to see and eat at are scarce in the area.  But the property is located right off the 110 freeway so getting to nearby sights and restaurants isnt that much of a problem. The area seems safe enough during the day but at night, it can be a bit sketchy. The parking lot seems to be in bad need of renovation as some of the concrete was not level and parking was a bit scarce .The property also charges 16.00 a day for parking with in and out privileges for IHG members. The room itself was well appointed. 2 beds, a desk that doubled as a dining table, fridge...The fridge was a hit and miss as sometimes it got too cold or not cold enough...but the biggest downer for the room were those popcorn ceilings. Really showed how dated the room was and definitely shows how much of an overhaul this hotel needs.For the price point, this hotel isn’t too bad . Would consider staying again if hotel updates their rooms and facilities.More</t>
   </si>
   <si>
+    <t>anthonybb2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r581796050-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I came in on a Saturday check in was told breakfast was extra, no problem so I paid for 2 breakfast buffets that was from 7 to 11.  So we walked in at 10 and was told the buffet was closed and had to order of a menu that had very small limit of options. It was not worth the money (nasty breakfast). $11 a day for handicap and hotel club members. Being disabled it was very hard to roll my luggage into the hotel from the parking lot, because of the uneven pavement in the potholes everywhere. Oh boy the room smelled like it use to be an only smokers room. It looked and smelled like it was old attic that’s been close for 20 years. Took a shower and the tub filled up and wouldn’t drain, I pulled off the cover and pulled out a ball of hair bigger then a golf ball (gross). They need to get it together. They need to do a total remodel on the whole hotel and hire employees that isn’t so ignorant and rude. We feel It was so bad that corporate should be getting a phone call from us. (WARNING DON’T STAY HERE!!!!)More</t>
   </si>
   <si>
+    <t>Iris R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r580456086-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve">Stayed here for the weekend while on a birthday beach trip with my family, I got a crib for my 7 month old and he slept good in it. Would stay here again, only thing Was that they charged for parking per night we ended up paying 22$ just for that two days, and breakfast there was way overpriced, ended up going somewhere else to eat. Walmart is a few minutes away which was very convenient.  </t>
   </si>
   <si>
+    <t>jetboatgirlforlife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r459502538-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>daniel8988</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r415971300-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>I am a jet setter and literally live in my suitcase as i stay in hotel most of the time. What in the world give your hotel the right tell me when i can get my package only from 830 to 930 in the morning and 3 to 4 in the afternoon. Dont you understand jetlag?? I am a guest in your hotel you should be the one adjusting to my needs not the other way around. I am also an IHG member and never did i experience this with other IHG hotel member. Be ashamed of your customer service nothing worth going back again.More</t>
   </si>
   <si>
+    <t>Letty G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r406760741-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve">Apparently it was a very busy weekend when we arrived.  There was a quinceanera going on in the 2nd floor and a tourist group had just arrived, but despite all of the action, we were attended quickly.  The service was excellent!  There was 5 of us so we had a suite.  The room was very cozy.  It was 2 full sized beds and a television in one room and the next room had a sofa bed with a television and desk.  The room was very clean and quiet.  We had a good rest.  We stayed for 2 days.  </t>
   </si>
   <si>
+    <t>Jeremy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r392238126-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>Walking into the lobby for checking in, I can watch and hear a gentle and soothing waterfall sound from a small rock mountain into a crystal clear Koi pond surrounded by fresh and beautiful flowers. See the uploaded photo for details.The hotel occupancy is often at a nearly 100% level due to corporate contracts, although it has been in a remodeling stage at this time. Front desk staff are friendly and like to help.It also provides a complementary shuttle service from the hotel to Harbor Gateway Transit  Center where you can take a 950X or 910 Express Bus to downtown Los Angeles via Express Busway. In the rush hour, you can board a bus at a 5-minute interval on average.More</t>
   </si>
   <si>
+    <t>DrRat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r390872032-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>I've stayed here for a few days two summers in a row as I have family nearby.  Generally I don't have the highest opinion of Holiday Inns, but this one is outstanding.  Extremely clean, quiet, very comfortable, a good location if you have transportation.  Very comfy beds. Excellent staff (a special shout out to Susan, the manager who was so nice about getting us the exact room we wanted). Many flight attendants and pilots for various Asian airlines stay here, which is kind of fun, so you can actually get a real Japanese or Hawaiian breakfast, if you want. I love the koi pond and the general ambience. Will definitely be back!More</t>
   </si>
   <si>
+    <t>IanHonestReviewer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r390578092-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t>Quiet hotel with really comfortable beds. Nice heated pool with jacuzzi. Free parking and good food from the restaurant. The service was amazing and Syed from the restaurant and Erica from the front desk was awesome.Thanks</t>
   </si>
   <si>
+    <t>Darryl  A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r373683251-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>This is an awesome Hotel the staff is really friendly the pool is nice the recreation room is awesome they cleaned and sanitized the hot tub every morning this is an awesome stay the rooms are very clean I give this place five stars and I would recommend it to anybodyMore</t>
   </si>
   <si>
+    <t>Ana S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r373068162-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>Staff at front desk should undergo "training" re customer service esp John and Jose. Very discriminating attitude.  Room smelled a very strong odor of  cleaning agent. I guess they are not environment friendly. Would never stay in this hotel again or suggest to co workers, friends and relatives.More</t>
   </si>
   <si>
+    <t>Qiana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r367496083-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r337415038-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>Spent 2 nights  including New Years Eve. Room was decent size and clean (especially for pet friendly room), but furniture was worn (nicks and scratches). Tub handle did not work but maintenance was there quickly to repair.Desk staff pleasant and friendly. The wifi password changed each day (because of change from 2015 to 2016?) and expired last day before checkout time. Not much in immediate vicinity in respect to dining and entertainment since surrounding buildings mostly office complexes. Booked thru Hotels.com and rate was reasonable, especially for NYE. Close to 110 and 91 freeways. Would stay again but hope rooms are remodeled soon.More</t>
   </si>
   <si>
+    <t>Otrani1127</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r336833122-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>Too much traffic, looking to rest found this Holiday Inn, had rooms available luckily and stayed for the night. Checked in overnight, received a late check out until 2pm. Loved the bed and we had a great night sleep. Thanks Holiday Inn!!More</t>
   </si>
   <si>
+    <t>Angel C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r335865356-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -471,6 +516,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Greg G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r312404131-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jeremy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r303742917-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>Checking into the hotel I was treated very well be the front desk representative "Maine".The rooms are good size, which are clean and I had an amazing view of Los Angeles on the 11th floor. The food at their restaurant was amazing I had the house salad and fish tacos, for $15.00. The average cost of the dinners were between $15 to $20 a plate, the waitress did a good job no complaints on her. The best thing was the quality of the food was exceptionally delicious for the average to slightly high price of the meal, but it filled me up and did the job. Thank you the stay was well worth it and I will come back again. Enjoy the review from JJ.More</t>
   </si>
   <si>
+    <t>maryro13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r281684390-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>I have stayed in hotels of all rates around the world.  I just spent a week with the incredible staff of the Holiday Inn Torrance and the service was "over the moon".  The reception desk called my by name from check-in every time they saw me,  The restaurant staff, including room service chef and delivery team were delightful and the food was mouth watering. I was teaching in the conference area each day and Michele and Rita could not have been more helpful. The shuttle driver went out of his way to accommodate my schedules.  The room was clean, neat and air conditioning worked great, but the team "made the stay"! I will definitely book there next trip as well because of the service "all around".  Well done Holiday Inn Team!!More</t>
   </si>
   <si>
+    <t>Diana H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r269815345-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -564,6 +621,9 @@
     <t>Hotel was a pleasant surprise.  From the time we checked in the staff treated us wonderfully and helped us with maps print outs of places we were asking to go to.They have a nice breakfast buffet, full service restaurant and bar.  Hotel is easy access to highway which makes it easier to get around the area.We would consider staying here again.More</t>
   </si>
   <si>
+    <t>BD12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r268328094-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -588,6 +648,9 @@
     <t>Location: unless you have business in Torrance proper, its pretty inconvenient to everywhere.Rooms are ok but as with all HI's pillows: chunky, firm...always wake up with neck pain at HI and these smelled as though they had been spritzed with sickly sweet spray, disgusting almost nauseating smell. Is this because they just sray and dont chg and wash...dont know? In any event places like Marriott have much better beds and pillows.Tiny lounge.breakfast buffett: fake eggs tasted like cardboard, fruit was ok not great. Pleasant servers.Im 25 year pilot with major, Holiday Inn continues to be worst chain around. Go up the road to Ayers, better location , much better hotel.More</t>
   </si>
   <si>
+    <t>nephratiri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r267396955-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -612,6 +675,9 @@
     <t>This hotel was very nice. The staff was friendly. We went during a busy time (Grand Prix) and so we weren't able to check in early-the rooms weren't ready til about 2:45pm but we were able to relax in the lobby as they have plenty of seating area plus a café/bar/gift shop to keep you busy. The pool was nice and lounge area there was big. The gym needs better ventilation. We can only get to the pool thru the gym and whew that gym odor was potent! the room was big and the bathroom was very roomy and clean but I did find a few long hairs on my pillows (its not mines because my hair is curly and brown). There is a fee for parking but since I joined their discount group thing it was free for the first time. We had breakfast at the café and the buffet was very good, but we did also order food and the waiter seemed lost a lot. He kept getting my moms order wrong and it just seemed like he didn't know what he was doing? but he was very nice. Overall a lovely place to stay that's inexpensive.More</t>
   </si>
   <si>
+    <t>canadiancraftsman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r263593650-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>We stayed here before boarding a cruise ship docked just down the way.The room was OK, the food was OK, the prices were OK...nothing to make this place outstanding with the exception of the outstanding staff.Unfailingly polite and courteous, they were able to answer each question and meet every request.There is no refrigerator, the breakfast is not included.  Just a place to sleep overnight.More</t>
   </si>
   <si>
+    <t>Bharat I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r260811195-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>This is a decent hotel with fairly good sized rooms and a reasonable location from the airport.The rooms are clean and airy; the facilities are good BUTthe internet is not up to scratch. This is most important fro business travelers such as yours truly. I had to change over to a new room the 2nd night after i could not connect. Though it was ok after that for the next 4 nights, it was still patchy.Dinner service is ok with breakfast the usual standard stuff.More</t>
   </si>
   <si>
+    <t>Moni3373</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r258606291-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -687,6 +759,9 @@
     <t>Needed a local hotel for a night and got a great deal thru Hotwire.com.  The staff was very nice &amp; accomodating.  The air conditioner was a little off, we couldn't get it from being to color or to hot.  Rooms were cleanMore</t>
   </si>
   <si>
+    <t>Joseph M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r253117048-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -708,6 +783,9 @@
     <t>This was my first stay at this HI, so I did not know what to expect. I stayed one night with my wife and daughter so we carried lite luggage. Upon arrival the place looked pretty well kept from the outside. Large parking lot and clean landscape. The lobby is spacious and checking in only took . Couple minutes. Although, I actually stood in line for a total of about 10-mins, the staff was working quickly to handle each patron. The Ginger Cafe, around the corner from the reception area, was very clean and comfortable. The elevators may take some time if the place is booked, as it was in our cases. (Sorority Anniversary, Asian Conference, 3-youth girls soccer teams) The room was clean, but had a couple of faint odors that we found... (Marijuana, and cigarette ashes)  The lotion bottle in the bathroom was partially used, but not an issue for us.  What we didn't like was the lack of privacy curtains. They had see-through ones, but nothing to shut out moon/sun light. Everything else was very nice, and for the price it couldn't be beat. Will definitely stay again in the future. HIGHLY RECOMMENDED!More</t>
   </si>
   <si>
+    <t>Andrew W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r252982847-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -732,6 +810,9 @@
     <t>Stayed in a suite -- spacious, quiet, and reasonably priced.  The only real drawback was having to pay $11 to park in a large lot that was mainly empty.  Otherwise, the staff were friendly and accommodating, and the location was convenient to the 405, but without a lot of traffic noise.More</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r250443096-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -750,6 +831,9 @@
     <t>For me, there would probably be only one thing that keeps it from being a perfect hotel to stay:  an over abundance of Asian airlines flight crews that never seem to vacate the hotel lobby.  That's not such a terrible thing, but I don't know why the women from these airlines will spend over 10 hours confined in a large tin can of an airliner working the flight, and then spend another 10 minutes after they get a room assigned hanging out in the hallway outside my room chatting away like they haven't been in each other's company...More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r245243228-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -768,6 +852,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Musclebearnz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r241164026-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -789,6 +876,9 @@
     <t>I had a very enjoyable stay at the Holiday Inn Torrance recently. I was upgraded to an executive room on the top floor which included breakfast and evening drinks. In the weekend, the breakfast was in the main restaurant on the ground floor. The room was large and did everything it needed to do. The room had an awesome view and you could see the Goodyear Blimp taking off and landing which was breathtaking to see. Parking is plentiful and the WIFI was free and fast. The staff really are exceptional at this hotel. In particular, Maine and Rhyne on reception. They were so kind and helpful and always had a hello, or see you later, when I passed through reception. Oscar in the restaurant at breakfast time was awesome; he was always so friendly and considerate. There are so many choices of hotel in the LA area, but I always come back to the Holiday Inn Torrance. Yes it’s in an area of Company HQ’s etc, but it feels very safe. Everything else is a short drive away, so a car is probably essential. Try it, you won’t be disappointed!!More</t>
   </si>
   <si>
+    <t>Dave_the_Oracle_DBA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r238377105-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -810,6 +900,9 @@
     <t>I'm an IHG platinum member and I travel here on business quite often.  Between this hotel and the Crowne Plaza in San Pedro, I've probably stayed over 100 nights in 2014. so far so I'm very familiar with both hotels.Pros: The front desk staff is always cheerful and very helpful.  The business center is convenient if you need to print a boarding pass or check into a flight.It's always been quiet and I can always count on a good night's sleep here.  This hotel does a lot of business with airlines and business travelers.  I've never had a problem with noise.The restaurant has good food but the menu is a bit limited; If you've stayed at many Holiday Inn's you'll recognize the menu. The rooms are always clean and comfortable.  I stay at quite a few Holiday Inn's and I can always rely on a comfortable bed and pillows.The pool and spa are nice for a quick dip after the days work.  There is a small fitness center on-site (a few treadmills and a couple of machines). Cons: There is nothing within walking distance, but they do have a shuttle. So if you're in the mood for something other than the hotel restaurant, you can still get out.  Summary: Ideal for business travel.More</t>
   </si>
   <si>
+    <t>johnny1104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r229261771-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -837,6 +930,9 @@
     <t>Front of House Staff - top notch!!! Other staff - not so much!! Not so busy in restaurant that staff closed early - woman staff member didn't even look at you - must have been having a bad day...hotel operator was in the same league too, when I called to asked for some cutlery to be delivered to my room, she put me through to Room Service, and I was told to go downstairs to the restaurant to collect it myself!! mmmmmm ...where is the service?More</t>
   </si>
   <si>
+    <t>Zoomer18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r227173147-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -855,6 +951,9 @@
     <t>We stayed here for two nights on our recent trip.  Right from the moment we arrived to when we checked out I have to say the staff were the most friendly we have ever experienced in a hotel.  5 stars for this. Maine in particular was very helpful on local beaches and things to do.The rooms were spacious, immaculate, so comfortable and to top it off for me they provided Bath and Body Works toiletries.  They even tolerated my endless requests for more obviously knowing these were heading straight to the suitcase.  It does seem at first this is in an industrial area however it was a 10 minute drive to Manhattan Beach which was far nicer than Venice Beach.  We went to the Del Amo shopping centre as this was around 10 minutes away.  We felt safe and secure in this property and I would certainly stay again.More</t>
   </si>
   <si>
+    <t>DCTraveler187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r226397239-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -873,6 +972,9 @@
     <t>This was one of the few properties fairly close to downtown LA that would accost the Federal Government Lodging Rate on a weekend.  That alone, is worth something.  My check in was fast and the attendant was polite.  I got upgraded to a nice room on the corporate floor.  The room itself was clean and spacious.  The furniture and fixtures are due for an overhaul, but it wasn't bad.  The outdoor pool and jacuzzi on a 2nd or 3rd floor rooftop deck looked great, although I didn't use them.  It seemed like the gym equipment had been upgraded (a source of recent bad reviews.) This hotel is in a mixed use industrial area, although the surroundings seemed safe and clean.  I wasn't concerned for my safety or about leaving my car in the lot overnight.  Overall, I thought that this was a middle of the road Holiday Inn with convenient access to downtown.  More</t>
   </si>
   <si>
+    <t>reddog4613</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r222386613-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -891,6 +993,9 @@
     <t>Hotel is located in an fair area not too close to freeway traffic but not near attractions either. The freeway was close that you could get to other places quickly. The room was clean and nice. The beds were a bit firm for my taste. The pillows were soft. The toiletries were nice. Plenty of parking no issues there. I was not impressed with the service nor the quality of the food in the restaurant. Our waiter did "check" on us if we needed anything. The hotel advertised "Starbucks" but it was merely a Keurig machine with Starbucks K-cups and charged like $2.50 for a k-cup. The immediate surrounding area was lacking in restaurants. There was one Thai restaurant that had great food. We were attending a family gathering so it was located near the family we were visiting.More</t>
   </si>
   <si>
+    <t>Explorer100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r221449677-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -918,6 +1023,9 @@
     <t>The room was clean and functional. We got a good night’s sleep on a comfortable bed and quiet room. The breakfast got us off to a good start. The room was large and the restaurant quieter than most.  Round trip cab cost to LAX was $90.More</t>
   </si>
   <si>
+    <t>uhim64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r216891806-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -945,6 +1053,9 @@
     <t>Not sure if I got the room as an upgrade for my membership or was just regular, but I got an awesome suite for a regular price of a room. Next I stayed to an Intercontinental hotel with double the price, but I still liked this room more. Elegant, spacious, comfortable, just perfect. The restaurant offer a buffet in the morning, and a few items a la carte. The buffet was OK. The menu doesn't offer a larerge variety (not suitable to eat everyday if you stay long), but we have a dinner and was just delicious.It's a quite area, with no attractions very close, but with the car, in 20-30 min you could reach any attraction in LA area (beach, downtown, Hollywood studios...)Stayed 3 days with the family and loved the placeMore</t>
   </si>
   <si>
+    <t>Milvey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r210082276-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -969,6 +1080,9 @@
     <t>I'm out here hustling for the man and need somewhere to stay.We decided on this location because:A) It's close to our project location.B) It had a pool.C) It's close to our project location.The name of the review really sums it up. There's nothing noteworthy about the place. It's certainly not bad, but it's certainly not great. The rooms are clean, restaurant is ok, decor is boring. Just another business hotel.The guest book does point out the koi pond as a major feature of the facility. The koi pond is pretty average, though the koi were both plump and majestic.There is also a restaurant called the Ginger Cafe. I was disappointed to note that no dishes seemed to have ginger, nor did the staff have ginger hair. Though there only ever seems to be 3 staff in the entire restaurant, they do their best, but thats annoyingTo sum up, it's a fine hotel if you need somewhere to sleep. But that's about it.More</t>
   </si>
   <si>
+    <t>Jennifer L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r209846773-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -985,6 +1099,9 @@
   </si>
   <si>
     <t>We had two long flights all the way from Malaysia with transit of almost 10 hours in Narita before reaching LA, and of course the next best thing to do is to check into the hotel and take a nice bath before exploring the area. We checked into the hotel which was pre-booked before hand after getting the rented car. We stayed in the 14th floor for 3 nights. Rooms were cozy, spacious and clean. Our rooms comes with refrigerator which is convenient for us to store our cold drinks :) The staffs were friendly and helpful. We had coupons for breakfast which entitled us to have either the buffet spread (consist of scramble eggs, baked potatoes, sausages, crispy bacon, danish pastries, muffins, toast bread, fruits, milk and yogurt)  or Japanese breakfast. Coffee and fresh orange juice are served as well. We enjoyed our breakfast for sure and we were given cups to take away our coffee as well :) Definitely a comfortable place to stay and definitely will come back the next time i visit LA :)More</t>
+  </si>
+  <si>
+    <t>googlejoe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r207401782-Holiday_Inn_Torrance-Torrance_California.html</t>
@@ -1025,6 +1142,9 @@
 I would definitely stay again if back in town, but you need to have a car if you stay here. It is in a...Not quite sure about all of these negative reviews, but I have just returned from a very comfortable 5 night stay here.We were checked in very quickly by a friendly and efficient member of staff (about 5pm 5/20/14) who explained about the facilities of the hotel before assigning us a room on the 10th floor. There are 3 elevators in this hotel and depending on how busy the lobby is you may have to wait a few minutes.The room itself was large with 2 soft beds with lovely soft linens and a  choice of pillows. The room had complimentary WiFi which was fantastic. I have to say we both had a fantastic few nights sleep here.The bathroom was lovely and large with lots of towels provided. We went to the bar a few times and bought some drinks to the room, it was very reasonable priced for a hotel, however They could do with providing a drinks menu at the bar!I did have to make a complaint about the maid service which was dealt with promptly.I don't know about other people in the hotel but we felt perfectly safe regularly returning about 10pm, the car park was lit and there were plenty of spaces, also a bonus that it was free!I would definitely stay again if back in town, but you need to have a car if you stay here. It is in a business district but there are great transport links to the interstates.More</t>
   </si>
   <si>
+    <t>Pete954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r206522810-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1049,6 +1169,9 @@
     <t>Im a crew member with a major airline. I cannot believe that my company would accommodate their front end staff at this property.The Hotel is located in a warehouse district.  The surrounding neighborhood is unsafe.  I suggest that you Pull up a crimes report for the area and you will see numerous assaults and crimes committed in the immediate area. Not safe to walk,jog,etc.The gym equipment is broken and need of repair.The hotel has a plumbing problem. Toilet backed up and water came up the shower drain. Called maintenance and they had to switch me top another room.This has happened to numerous crew members in other rooms.I feel like Im in Prison at this property. DEPRESSING! Alternate suggestion, The Torrance Marriott, The Torrance Double Tree near the mall and safe area.SHAME ON THE AIRLINE THAT WOULD ACCOMODATE THEIR CREW MEMBERS AT THIS PROPERTY!STAY CLEAR OF THE HOLIDAY INN TORRANCE!YOU NEED A CAR TO GO ANYWHERE!More</t>
   </si>
   <si>
+    <t>Monique D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r206107003-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1073,6 +1196,9 @@
     <t>When the van pulled up to the hotel, all I could think was where are we? I am a crew member with an airline and stay in hotels often. This hotel has been updated. The front desk is polite and friendly. However, the gym is dated and some of the cardio equipment doesn't work very well or at all..The location of this hotel is smack in the middle of an business/industrial area. There isn't much of anything to see or to walk to.You  need to have a car . There is a hotel shuttle that will take you with in a 5 mile radius. But Restaurants in walking distance are nearly non existent. While the room was updated, it wasnt very clean. There was mold in the corner of the tub and hair on the floor of the bathroom.More</t>
   </si>
   <si>
+    <t>moobaby214</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r204884340-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1091,6 +1217,9 @@
     <t>All of the LAX hotels were booked up, so my company found us rooms here. The hotel itself sits in a business park area so it's very quiet. Easy access to the interstate also. From the time we arrived till we left every employee was super friendly and professional. Check in at the front desk was fast and without any issue. My room was what you would expect. Basic king bed with a flat panel TV. Good A/C unit and a great bed. It's one of those bed's not to soft, not to hard with really good pillows. I slept good and breakfast the next morning was fine. The buffet was not real flash but the food was good quality and hot. My server was a great guy and brought me a coffee cup for the go. Honestly I had not stayed in a Holiday inn in years. This property and more importantly the employees really make this a great hotel. I highly recommend this place if you don't mind not staying near LAX. The drive was 20 minutes max down the 405.More</t>
   </si>
   <si>
+    <t>JamesDMo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r203035690-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1118,6 +1247,9 @@
     <t>I previously resisted staying here due to the fact that it's location was 10 minutes further away from my usual destination and surrounded by mostly offices and light industrial buildings. What a mistake! This proved to be one of the best Holiday Inns I've stayed at.All staff, without exception, were courteous and went out of their way to make sure I got what I needed - including allowing me to check it at Noon and calling housekeeping to find a room for me that was already cleaned.The overall "feel" of the hotel is that it is clean, well-kept and modern. Common areas are attractive. My room on the 14th floor was immaculate, quiet and came with a bonus of a great view.I will most definitely return to this hotel again. I'm a new fan of the Holiday Inn Torrance!More</t>
   </si>
   <si>
+    <t>HyattHilton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r201799252-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1139,6 +1271,9 @@
     <t>Nice rooms and staff.  Very good value, but certainly not a vacation location.  The rooms were clean the restaurant was good, and staff was helpful and friendly.  The location makes very easy to get to many places quickly.  I would not be comfortable walking around outside in the evening.More</t>
   </si>
   <si>
+    <t>Ilovetravelphotos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r201269282-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1157,6 +1292,9 @@
     <t>This isn't a place you go for a week's vacation, but overall the hotel was great for the one night we stayed.  The front desk staff was extremely friendly and professional. We arrived in the evening so were able to get right to our room.  It was a nice room and looked almost new.  Nice big bathroom, great toiletries.  Our view was ugly but for one night we didn't care, and we got a great AAA rate!  The only negative is that there was leftover snack food crumbs under a chair which we didn't notice until morning.  Would definitely recommend for a short stay.More</t>
   </si>
   <si>
+    <t>sistasister_2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r197590135-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1181,6 +1319,9 @@
     <t>Not much to say. It's ok plAce to sleep. Door knob on bathroom was broken. The cafe was ok expensive food terrible seemed microwave. Pretty fish pond. Not much else to say. I think hotels should get rid of tubs and just have walk-in showers if they don't have large whirl pool tubs.More</t>
   </si>
   <si>
+    <t>Marie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r197308421-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1205,6 +1346,9 @@
     <t>Overall experience in the hotel was average and the price we paid was a bit over-priced.  The entrance to the hotel from Vermont avenue was not easily accessible.  There was no signage. The entrance is also the exit and it was narrow..so that said, one should be very careful coming in and going out of the premises.Their beds were VERY OLD and they squeaked.  They were the most uncomfortable beds I've ever laid on.  They need to replace them ASAP.  The carpet in the bedroom and along the hallways were dated.  However, I have to say that overall the hotel was clean.  There were many parking spaces, well-lit and the grounds were clean.The staff were friendly and helpful.  I would rate the service they provided as high.Unfortunately, we did not have a chance to patronize their restaurant/lounge as there were many restaurants near the hotel.Are we staying there again? Yes if they change their beds  :-)More</t>
   </si>
   <si>
+    <t>dancingf00l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r197073915-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1232,6 +1376,9 @@
     <t>Holiday Inn Torrance is in a great location between LA and the beautiful beaches. Holiday Inn Torrance is clean, comfortable, and staff are friendly. Julio, the manager made sure everything was comfortable for us. The food and the service in the restaurant was also very good. The pool and Jacuzzi were outstanding. The hotel is a full service hotel, beautiful, comfortable, and staff are great. I would highly recommend this hotel, and would definitely stay here again.More</t>
   </si>
   <si>
+    <t>4ritap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r186602093-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1256,6 +1403,9 @@
     <t>My husband stays at this hotel weekly for about 180 weeks. Do to his job. He's stayed at several local hotels in the area. And he prefers to stay here because the bar tender Oscar goes out of his way to make you feels welcome. He's like family.and the girls at the counter are very kind and always refer to us by Mr and Mrs..friendly and professional.  I love this hotel.More</t>
   </si>
   <si>
+    <t>luv2travel022</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r183563373-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1283,6 +1433,9 @@
     <t>We were only in LA for one night and found this to be a great option. It was a good price and had good reviews, and though it was a 30 minute drive from the event we were attending, we went for it. After staying here, I still think it was a good choice! The property is nice from the outside, easy access to freeways, and the lobby and restaurant area were nice as well. Check-in was easy, staff was polite, security is good as you must use your room key to go up the elevator to most floors and the room was clean and somewhat updated. It could use a few more updates, but for a one night stay, it was all we needed. Even had a refrigerator, which is becoming standard nowadays. The only negative was the room service food wasn't all that great. We ordered dinner &amp; breakfast. Both could be improved upon. I would stay again.More</t>
   </si>
   <si>
+    <t>LaiLaiGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r182549829-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1307,6 +1460,9 @@
     <t>We have stayed at the Holiday Inn Torrance two years in a row for Oktoberfest at Alpine Village, which is nearby. The guy who checked us in let us know there is a shuttle to Alpine Village, which we were unaware of. This Holiday Inn has a Japanese style feel, probably because many of its clientele are from Japan. We got a suite this time, and it has Japanese style sliding doors. The artwork is also Japanese. The bed is perfect. It is not too firm and not too soft. The pillows are tiny, but I don't have a problem with them. I love that this suite has 2 air conditioners. We have stayed at other hotels suites where there was only one.I also noticed the TV remotes actually match the TV and look brand new. They have all the functionality. They are not the tiny generic ones that you've seen at other hotels.The Holiday Inn Torrance has the quality of a fine hotel, but at a much lower cost. This is one of my favorite places I have ever stayed at.More</t>
   </si>
   <si>
+    <t>Kuperin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r178335201-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1334,6 +1490,9 @@
     <t>Stayed one night (saturday). Was kept awake by loud music playing till 1 am, the internet was slow and half the TV channels stopped working during the evening. Very disappointing experience compared to other Holiday Inn hotels.More</t>
   </si>
   <si>
+    <t>WeArePennSt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r175917529-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1358,6 +1517,9 @@
     <t>We booked here over Labor Day weekend at last minute; and to be able to get a dog-friendly hotel for barely over $100 was a great deal! The pet deposit is refundable, which is great because my dogs don't make a mess of a hotel room, so I hate paying a non-refundable fee for no good reason. The whole hotel is clean and staff is very friendly and helpful. The beds were comfortable and the bathroom was very nice and modern. It is in an Industrial section, so it's quiet and safe (which can be stressful to find in LA if you don't know the areas). I would definitely recommend.More</t>
   </si>
   <si>
+    <t>MandH621</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r175591078-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1385,6 +1547,9 @@
     <t>I've stayed at this hotel several times for business.  It is definitely a business-oriented facility, but is also popular with youth sports teams as well.  It is near the Stub Hub Center where the LA Galaxy and Chivas USA play and CSU Dominguez Hills.  The bar is pleasent and the dining seems adequate for most.More</t>
   </si>
   <si>
+    <t>Cynthia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r171242379-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1412,6 +1577,9 @@
     <t>The receptionist is very helpful. The room is clean, bed is comfy. We feel safe because no one can go up in the rooms if you don't have the card key given to each customers. we did not try their restaurant because there are a lot of Asian eating places in the vicinity.More</t>
   </si>
   <si>
+    <t>Fernando-Botargues</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r170585378-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1436,6 +1604,9 @@
     <t>I did not know Torrance, but decided to stay here while visiting Los Angeles, since we had a car.The hotel is great, clean and have lots of amenities (outdoor pool, jacuzzi, gym, restaurant/bar, free wifi, free parking, etc).  The rooms are big, clean, well maintained and with brand new furniture and decor.  The beds were extremely comfortable.The only problem with this hotel is the location, in the middle of nowhere.  There is nothing to do around, unless you use your car.  But still, the location is just outside route 405, which takes you anywhere in Los Angeles.  If you go to the beach, there is a 15' drive to Redondo Beach.More</t>
   </si>
   <si>
+    <t>Rick R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r167471842-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1460,6 +1631,9 @@
     <t>This was my first time staying at a Holiday Inn, I usually try to stay at a Marriott because they are always nice and clean.  Our room, 505, is decorated nicely and the restroom as well.  The room is clean for the most part but I did find several stains on the carpet and what appeared to be a fruit seed on the floor, not there because of us.  Carpet, restroom, and bedding cleanliness are my top priorities when traveling.  The restroom was clean but the tub was clogged.  I called the front desk and they sent someone to fix it even at 11PM.  The small refrigerator needs to be defrosted so we weren't able to use it and I ended up having to keep filling my ice chest with ice daily.  The Internet is slow and the pool closes at 9PM.  I know like it sounds as if I was not happy with my stay but I was.  The room is elegant and clean, the restroom is covered in marble and granite.  I felt comfortable with my kids walking around barefoot.  The staff was pleasant, from the lady in the lobby to the maintenance man.  Our room was quiet which is also important to me.  I don't mind paying extra for a nicer room.  I do recommend this hotel and would return again.  I would've rated this a 5 if not for those minor issues.More</t>
   </si>
   <si>
+    <t>GandC71187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r164217491-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1487,6 +1661,9 @@
     <t>We needed a local hotel while our home was being tented and found this one ....we were delighted with our visit.  We had our big (80 lb )German Shepherd with us.  They are definitely a dog-friendly hotel with a little designated walking area outside.  The room was large, very clean, very comfortable and well appointed.  We ate dinner and breakfast in the hotel.  the food was good and the service was excellent.  In fact, the service was excellent everywhere:  at the front desk, housekeeping, and the restaurant.  Traveling here is very convenient because it is right next to two major freeways.  That said, there is NO freeway noise at the hotel.  We had a very quiet,comfortable night's sleep.  We would not hesitate to recommend this Holiday Inn  to any of our friends who needed a local hotel!More</t>
   </si>
   <si>
+    <t>BHarv_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r163619530-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1511,6 +1688,9 @@
     <t>Or Compton or Carson this is a good choice.  The rooms are nice enough, the bed was comfy.  Bathroom was clean and the internet worked just fine.The restaurant is pretty decent, and they serve bento boxes, much to the delight of my Japanese colleagues.  Some nights they feature a laid back trio in the lounge, and I enjoyed listening to them.This hotel isn't near anything, so a car is a necessity - but then, in SoCal a car is a necessity anyway. AND this hotel is only 20 minutes to LAX, an easy shot up the 405.If you happen to be a member of HI's priority club, they do treat you pretty well up on the 14th floor in the lounge.  Overall, this is a pretty decent property, and I'm sure I'll be staying here again.More</t>
   </si>
   <si>
+    <t>simon c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r162774404-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1538,6 +1718,9 @@
     <t>You need a car when staying at this hotel as there is nothing close by. Good if you want to travel around the area without getting stuck in LA traffic. For me the location worked well for my business meetings and access to the airport. However the hotel was tired and in need of an update. Food not great, service in the restaurant not great either. Rooms tired but clearMore</t>
   </si>
   <si>
+    <t>janeandfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r160570804-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1565,6 +1748,9 @@
     <t>My son and I won tickets to Wango Tango 2013, our hotel was Holiday Inn in Torrance Calif., We had checked in with Maine (that's his name), he was so kind and caring, he made us feel like we were Rock Stars! Ross and Richard drove us to Redondo Beach and to the Venue at Home Depot Center. Both of them were so nice and professional! Our room was Fantastic, it overlooked the pool deck and all around coverage of beautiful views of the mountains, city, and just incredible views at night! Our room was clean, beautiful and cozy beds! We also eat most of our meals there at the Ginger Lounge, our server was Sergio, wow, he was friendly, kind and caring always a big smile on his face to greet us! We had dinners, breakfast, snacks all of the meals were fresh, hot and great tasting! I highly recommend this Holiday Inn any time your in the Los Angeles area! They all gave my son and I a new place to call home!More</t>
   </si>
   <si>
+    <t>HolyToledo8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r160122271-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1592,6 +1778,9 @@
     <t>10+++Excellent Service! If you belong to their 'Priority Rewards' program, free to sign up, you get treated like Kings &amp; Queens! Beautiful, Recently Renovated. Very Clean.  Made a Same day Reservation, Sat. night. At check in we claimed our 2 Complimentary Drink Tickets at the hotel Bar, along with 2 Complimentary Breakfast Buffet tickets (included tax &amp; tip!) for the following morning. We had a very nice room with a view (freeway :D) on the 10th floor. The hotel is approximately 15 min. from the beach, but Well Worth the Experience! I Suggest this hotel to Anyone staying in the area!More</t>
   </si>
   <si>
+    <t>Beverly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r159941647-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1610,6 +1799,9 @@
     <t>We stayed two nights and it was very clean and relaxing. We had breakfast at the hotel restaurant and it was very delicious!! Will stay again when in the area!! Was close to the event we were participating. Helpful with directions.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r155234227-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1637,6 +1829,9 @@
     <t>I was here only 1 night, but it was fantastic. As a platinum member, I stay at Holiday Inn's alot. This was a very nice hotel. The staff at check in were fantastic and I got a very nice room upgrade. The suite was spacious, clean and well maintained. The hotel was quiet and I was able to get some much needed rest. I always look for the quality of the shower and it did not disappoint. Beds were comfortable. If you plan on being in Torrance and need a nice hotel this one will not disappoint. The only down side is there isnt alot of places to eat in the vicinity, so plan on driving a little bit.More</t>
   </si>
   <si>
+    <t>J D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r154630733-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1664,6 +1859,9 @@
     <t>I stayed here 4 nights for a business trip. The staff were helpful and friendly, the rooms were clean and I really enjoyed the stay. I ate breakfast in the restaurant, the food was ok, but again the staff were extremely friendly and helpful. As another reviewer mention, it would be nice if there were more dining options close to the hotel, but I don't see that as the fault of the hotel itself.More</t>
   </si>
   <si>
+    <t>Valveguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r153979234-Holiday_Inn_Torrance-Torrance_California.html</t>
   </si>
   <si>
@@ -1686,6 +1884,9 @@
   </si>
   <si>
     <t>Thanks to Chelica, the check in &amp; check out was friendly and efficient.Room was clean and a good size. Bed was very comfortable but the small square pillows were not. Bathroom is clean and shower pressure was quite good. Breakfast buffet was less than average and the hot food was not even warm. Coffee was good. Area is very quite since it is in a business park. I would stay here again but would order from the menu and forego the buffet.More</t>
+  </si>
+  <si>
+    <t>GlobalTraveller81</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82353-r149860874-Holiday_Inn_Torrance-Torrance_California.html</t>
@@ -2217,43 +2418,47 @@
       <c r="A2" t="n">
         <v>21893</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>192976</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2267,50 +2472,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21893</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>192977</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2324,50 +2533,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21893</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>74761</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2381,50 +2594,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21893</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>192978</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2438,50 +2655,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21893</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192979</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2493,47 +2714,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21893</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>192980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -2552,41 +2777,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>21893</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>18590</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
@@ -2605,50 +2834,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>21893</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>192981</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2668,50 +2901,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>21893</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>66687</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2729,50 +2966,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>21893</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>192982</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2784,56 +3025,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>21893</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2845,56 +3090,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21893</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>24041</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2914,50 +3163,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>21893</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2969,47 +3222,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>21893</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>192983</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -3026,56 +3283,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>21893</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>6292</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3093,50 +3354,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>21893</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>15609</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3156,50 +3421,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>21893</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>137495</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3213,50 +3482,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>21893</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>192984</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3274,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21893</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>29574</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3341,56 +3618,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>21893</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192985</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3406,56 +3687,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21893</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>192986</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3471,56 +3756,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21893</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>192987</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3536,56 +3825,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="X23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>21893</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>192988</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3603,56 +3896,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="X24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>21893</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>192989</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3670,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="X25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>21893</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>14253</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3737,56 +4038,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>21893</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>4621</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3802,56 +4107,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>21893</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>148524</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3867,56 +4176,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="X28" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>21893</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>967</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3934,50 +4247,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>21893</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>192990</v>
+      </c>
+      <c r="C30" t="s">
+        <v>278</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3997,50 +4314,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>21893</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>192991</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4060,50 +4381,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>21893</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>192992</v>
+      </c>
+      <c r="C32" t="s">
+        <v>294</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4121,56 +4446,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="X32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>21893</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>192993</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4190,41 +4519,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>21893</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>192994</v>
+      </c>
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -4253,50 +4586,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>21893</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>192995</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4314,50 +4651,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>21893</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>192996</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4373,56 +4714,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="X36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Y36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>21893</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>192997</v>
+      </c>
+      <c r="C37" t="s">
+        <v>335</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4438,56 +4783,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="X37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="Y37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>21893</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>192998</v>
+      </c>
+      <c r="C38" t="s">
+        <v>345</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4509,56 +4858,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="X38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="Y38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>21893</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3642</v>
+      </c>
+      <c r="C39" t="s">
+        <v>354</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4580,56 +4933,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="X39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>21893</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>192999</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="O40" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4651,56 +5008,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="X40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Y40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>21893</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>193000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>370</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4722,56 +5083,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="X41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="Y41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>21893</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>193001</v>
+      </c>
+      <c r="C42" t="s">
+        <v>379</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4787,56 +5152,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="X42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="Y42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>21893</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>193002</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4858,56 +5227,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="X43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="Y43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>21893</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>193003</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4929,56 +5302,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="X44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="Y44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>21893</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>193004</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="O45" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4990,56 +5367,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="X45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="Y45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>21893</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>193005</v>
+      </c>
+      <c r="C46" t="s">
+        <v>413</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5059,47 +5440,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="X46" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>21893</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>193006</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -5126,56 +5511,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>21893</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>3634</v>
+      </c>
+      <c r="C48" t="s">
+        <v>429</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5197,56 +5586,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="X48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>21893</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>193007</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="J49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5268,47 +5661,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="X49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="Y49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>21893</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>193008</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="K50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5335,56 +5732,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="X50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>21893</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>193009</v>
+      </c>
+      <c r="C51" t="s">
+        <v>457</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="J51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="L51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O51" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5396,56 +5797,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="X51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="Y51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>21893</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>193010</v>
+      </c>
+      <c r="C52" t="s">
+        <v>467</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="K52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5457,56 +5862,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="X52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="Y52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>21893</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>193011</v>
+      </c>
+      <c r="C53" t="s">
+        <v>476</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="J53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="K53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="L53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5518,56 +5927,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="X53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="Y53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>21893</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>193012</v>
+      </c>
+      <c r="C54" t="s">
+        <v>486</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="J54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="K54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="L54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5589,56 +6002,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="X54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="Y54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>21893</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>193013</v>
+      </c>
+      <c r="C55" t="s">
+        <v>495</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="J55" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="K55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="L55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="O55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5660,56 +6077,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="X55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="Y55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>21893</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>31269</v>
+      </c>
+      <c r="C56" t="s">
+        <v>505</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="J56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="K56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="L56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5731,56 +6152,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="X56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>21893</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>193014</v>
+      </c>
+      <c r="C57" t="s">
+        <v>515</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="J57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="K57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="L57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="O57" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5802,56 +6227,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="X57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="Y57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>21893</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>18587</v>
+      </c>
+      <c r="C58" t="s">
+        <v>524</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="J58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="K58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5873,56 +6302,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="X58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="Y58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>21893</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>193015</v>
+      </c>
+      <c r="C59" t="s">
+        <v>533</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="L59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5944,56 +6377,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="X59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="Y59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>21893</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>193016</v>
+      </c>
+      <c r="C60" t="s">
+        <v>543</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="L60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="O60" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6015,56 +6452,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="X60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="Y60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>21893</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>193017</v>
+      </c>
+      <c r="C61" t="s">
+        <v>552</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="J61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="K61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="L61" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6086,56 +6527,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="X61" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="Y61" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>21893</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>193018</v>
+      </c>
+      <c r="C62" t="s">
+        <v>562</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="J62" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="K62" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="L62" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6157,56 +6602,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="X62" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="Y62" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>21893</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>193019</v>
+      </c>
+      <c r="C63" t="s">
+        <v>572</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="J63" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="K63" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="L63" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6228,56 +6677,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="X63" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="Y63" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>21893</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>52579</v>
+      </c>
+      <c r="C64" t="s">
+        <v>582</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="J64" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="K64" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="L64" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6299,56 +6752,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="X64" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="Y64" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>21893</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
+        <v>589</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="J65" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="K65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="L65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="O65" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6370,56 +6827,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="X65" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="Y65" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>21893</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>13557</v>
+      </c>
+      <c r="C66" t="s">
+        <v>599</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="J66" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="K66" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="L66" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="O66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6441,56 +6902,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="X66" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="Y66" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>21893</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>74700</v>
+      </c>
+      <c r="C67" t="s">
+        <v>609</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="J67" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="K67" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="L67" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="O67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6512,56 +6977,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="X67" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="Y67" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>21893</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>90126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>618</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="J68" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="K68" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="L68" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="O68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6583,13 +7052,13 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="X68" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="Y68" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
